--- a/Database Maintenance/F&O IncludeOK/IncludeOK_FO Equity Daily.xlsx
+++ b/Database Maintenance/F&O IncludeOK/IncludeOK_FO Equity Daily.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\Database Maintenance\F&amp;O Futures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="45" windowWidth="16995" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8633"/>
   </bookViews>
   <sheets>
     <sheet name="Dates &amp; Code" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dates &amp; Code'!$C$2:$I$395</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcMode="autoNoTable" iterate="1"/>
+  <calcPr calcId="152511" calcMode="autoNoTable" iterate="1"/>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>A</author>
   </authors>
   <commentList>
-    <comment ref="B218" authorId="0">
+    <comment ref="B218" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4328" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4340" uniqueCount="1400">
   <si>
     <t>ABAN</t>
   </si>
@@ -4241,6 +4246,21 @@
   </si>
   <si>
     <t>MOTHERSON.EQ-NSE</t>
+  </si>
+  <si>
+    <t>NAVA.EQ-NSE</t>
+  </si>
+  <si>
+    <t>SHRIRAMFIN.EQ-NSE</t>
+  </si>
+  <si>
+    <t>LTIM.EQ-NSE</t>
+  </si>
+  <si>
+    <t>SHRIRAMFIN</t>
+  </si>
+  <si>
+    <t>LTIM</t>
   </si>
 </sst>
 </file>
@@ -4330,7 +4350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4338,11 +4358,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4365,6 +4396,9 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7819,7 +7853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7854,7 +7888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8063,23 +8097,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X449"/>
+  <dimension ref="A1:X451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3:X449"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X451" sqref="X3:X451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="4" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="12.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
+    <col min="4" max="4" width="8.86328125" style="4"/>
+    <col min="5" max="5" width="12.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.86328125" style="4"/>
     <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="4"/>
+    <col min="8" max="16384" width="8.86328125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.85">
@@ -9702,8 +9736,8 @@
       <c r="D20" s="4">
         <v>20150529</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>415</v>
+      <c r="E20" s="4">
+        <v>20221230</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>415</v>
@@ -9721,9 +9755,9 @@
         <f t="shared" si="2"/>
         <v>1150529</v>
       </c>
-      <c r="K20" s="4" t="str">
+      <c r="K20" s="4">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1221230</v>
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9743,18 +9777,18 @@
       </c>
       <c r="P20" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="4" t="s">
         <v>1273</v>
       </c>
       <c r="R20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>if(Name() == "AMARAJABAT.EQ-NSE") { includeOK = DateNum() &gt;= 1150529; }</v>
+        <v/>
       </c>
       <c r="S20" s="4" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>if(Name() == "AMARAJABAT.EQ-NSE") { includeOK = DateNum() &gt;= 1150529 AND DateNum() &lt; 1221230; }</v>
       </c>
       <c r="T20" s="4" t="str">
         <f t="shared" si="11"/>
@@ -9774,7 +9808,7 @@
       </c>
       <c r="X20" s="4" t="str">
         <f ca="1">OFFSET($R$2,COUNTA(R$3:R20),$P20-1)</f>
-        <v>if(Name() == "AMARAJABAT.EQ-NSE") { includeOK = DateNum() &gt;= 1150529; }</v>
+        <v>if(Name() == "AMARAJABAT.EQ-NSE") { includeOK = DateNum() &gt;= 1150529 AND DateNum() &lt; 1221230; }</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
@@ -20210,8 +20244,8 @@
       <c r="F138" s="4">
         <v>20211029</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>415</v>
+      <c r="G138" s="4">
+        <v>20221124</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>415</v>
@@ -20231,9 +20265,9 @@
         <f t="shared" si="30"/>
         <v>1211029</v>
       </c>
-      <c r="M138" s="4" t="str">
+      <c r="M138" s="4">
         <f t="shared" si="31"/>
-        <v/>
+        <v>1221124</v>
       </c>
       <c r="N138" s="4" t="str">
         <f t="shared" si="32"/>
@@ -20245,7 +20279,7 @@
       </c>
       <c r="P138" s="8">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q138" s="4" t="s">
         <v>1273</v>
@@ -20260,11 +20294,11 @@
       </c>
       <c r="T138" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>if(Name() == "GSPL.EQ-NSE") { includeOK = (DateNum() &gt;= 1080821 AND DateNum() &lt; 1131101) OR (DateNum() &gt;= 1211029); }</v>
+        <v/>
       </c>
       <c r="U138" s="4" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>if(Name() == "GSPL.EQ-NSE") { includeOK = (DateNum() &gt;= 1080821 AND DateNum() &lt; 1131101) OR (DateNum() &gt;= 1211029 AND DateNum() &lt; 1221124); }</v>
       </c>
       <c r="V138" s="4" t="str">
         <f t="shared" si="39"/>
@@ -20276,7 +20310,7 @@
       </c>
       <c r="X138" s="4" t="str">
         <f ca="1">OFFSET($R$2,COUNTA(R$3:R138),$P138-1)</f>
-        <v>if(Name() == "GSPL.EQ-NSE") { includeOK = (DateNum() &gt;= 1080821 AND DateNum() &lt; 1131101) OR (DateNum() &gt;= 1211029); }</v>
+        <v>if(Name() == "GSPL.EQ-NSE") { includeOK = (DateNum() &gt;= 1080821 AND DateNum() &lt; 1131101) OR (DateNum() &gt;= 1211029 AND DateNum() &lt; 1221124); }</v>
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.35">
@@ -29733,8 +29767,8 @@
       <c r="F245" s="4">
         <v>20140910</v>
       </c>
-      <c r="G245" s="4" t="s">
-        <v>415</v>
+      <c r="G245" s="4">
+        <v>20221122</v>
       </c>
       <c r="H245" s="4" t="s">
         <v>415</v>
@@ -29754,9 +29788,9 @@
         <f t="shared" si="43"/>
         <v>1140910</v>
       </c>
-      <c r="M245" s="4" t="str">
+      <c r="M245" s="4">
         <f t="shared" si="44"/>
-        <v/>
+        <v>1221122</v>
       </c>
       <c r="N245" s="4" t="str">
         <f t="shared" si="45"/>
@@ -29768,7 +29802,7 @@
       </c>
       <c r="P245" s="8">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q245" s="4" t="s">
         <v>1273</v>
@@ -29783,11 +29817,11 @@
       </c>
       <c r="T245" s="4" t="str">
         <f t="shared" si="50"/>
-        <v>if(Name() == "MINDTREE.EQ-NSE") { includeOK = (DateNum() &gt;= 1080821 AND DateNum() &lt; 1090626) OR (DateNum() &gt;= 1140910); }</v>
+        <v/>
       </c>
       <c r="U245" s="4" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>if(Name() == "MINDTREE.EQ-NSE") { includeOK = (DateNum() &gt;= 1080821 AND DateNum() &lt; 1090626) OR (DateNum() &gt;= 1140910 AND DateNum() &lt; 1221122); }</v>
       </c>
       <c r="V245" s="4" t="str">
         <f t="shared" si="52"/>
@@ -29799,7 +29833,7 @@
       </c>
       <c r="X245" s="4" t="str">
         <f ca="1">OFFSET($R$2,COUNTA(R$3:R245),$P245-1)</f>
-        <v>if(Name() == "MINDTREE.EQ-NSE") { includeOK = (DateNum() &gt;= 1080821 AND DateNum() &lt; 1090626) OR (DateNum() &gt;= 1140910); }</v>
+        <v>if(Name() == "MINDTREE.EQ-NSE") { includeOK = (DateNum() &gt;= 1080821 AND DateNum() &lt; 1090626) OR (DateNum() &gt;= 1140910 AND DateNum() &lt; 1221122); }</v>
       </c>
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.35">
@@ -38182,8 +38216,8 @@
       <c r="D340" s="4">
         <v>20100730</v>
       </c>
-      <c r="E340" s="4" t="s">
-        <v>415</v>
+      <c r="E340" s="4">
+        <v>20221220</v>
       </c>
       <c r="F340" s="4" t="s">
         <v>415</v>
@@ -38201,9 +38235,9 @@
         <f t="shared" si="67"/>
         <v>1100730</v>
       </c>
-      <c r="K340" s="4" t="str">
+      <c r="K340" s="4">
         <f t="shared" si="68"/>
-        <v/>
+        <v>1221220</v>
       </c>
       <c r="L340" s="4" t="str">
         <f t="shared" si="69"/>
@@ -38223,18 +38257,18 @@
       </c>
       <c r="P340" s="8">
         <f t="shared" si="73"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q340" s="4" t="s">
         <v>1273</v>
       </c>
       <c r="R340" s="4" t="str">
         <f t="shared" si="74"/>
-        <v>if(Name() == "SRTRANSFIN.EQ-NSE") { includeOK = DateNum() &gt;= 1100730; }</v>
+        <v/>
       </c>
       <c r="S340" s="4" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>if(Name() == "SRTRANSFIN.EQ-NSE") { includeOK = DateNum() &gt;= 1100730 AND DateNum() &lt; 1221220; }</v>
       </c>
       <c r="T340" s="4" t="str">
         <f t="shared" si="76"/>
@@ -38254,7 +38288,7 @@
       </c>
       <c r="X340" s="4" t="str">
         <f ca="1">OFFSET($R$2,COUNTA(R$3:R340),$P340-1)</f>
-        <v>if(Name() == "SRTRANSFIN.EQ-NSE") { includeOK = DateNum() &gt;= 1100730; }</v>
+        <v>if(Name() == "SRTRANSFIN.EQ-NSE") { includeOK = DateNum() &gt;= 1100730 AND DateNum() &lt; 1221220; }</v>
       </c>
     </row>
     <row r="341" spans="1:24" x14ac:dyDescent="0.35">
@@ -39325,7 +39359,7 @@
         <v>if(Name() == "TATACOMM.EQ-NSE") { includeOK = (DateNum() &gt;= 1080225 AND DateNum() &lt; 1190628) OR (DateNum() &gt;= 1211231); }</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A353" s="4" t="s">
         <v>1217</v>
       </c>
@@ -39414,7 +39448,7 @@
         <v>if(Name() == "TATAELXSI.EQ-NSE") { includeOK = DateNum() &gt;= 1160226 AND DateNum() &lt; 1191226; }</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A354" s="4" t="s">
         <v>857</v>
       </c>
@@ -39503,7 +39537,7 @@
         <v>if(Name() == "TATACONSUM.EQ-NSE") { includeOK = DateNum() &gt;= 1061229; }</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A355" s="4" t="s">
         <v>1218</v>
       </c>
@@ -39592,7 +39626,7 @@
         <v>if(Name() == "TATAMOTORS.EQ-NSE") { includeOK = DateNum() &gt;= 1061229; }</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A356" s="4" t="s">
         <v>1219</v>
       </c>
@@ -39681,7 +39715,7 @@
         <v>if(Name() == "TATAMTRDVR.EQ-NSE") { includeOK = DateNum() &gt;= 1101029 AND DateNum() &lt; 1200130; }</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A357" s="4" t="s">
         <v>1220</v>
       </c>
@@ -39770,7 +39804,7 @@
         <v>if(Name() == "TATAPOWER.EQ-NSE") { includeOK = DateNum() &gt;= 1061229; }</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A358" s="4" t="s">
         <v>1221</v>
       </c>
@@ -39859,7 +39893,7 @@
         <v>if(Name() == "TATASTEEL.EQ-NSE") { includeOK = DateNum() &gt;= 1061229; }</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A359" s="4" t="s">
         <v>1223</v>
       </c>
@@ -39948,7 +39982,7 @@
         <v>if(Name() == "TCS.EQ-NSE") { includeOK = DateNum() &gt;= 1061229; }</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A360" s="4" t="s">
         <v>1224</v>
       </c>
@@ -40037,7 +40071,7 @@
         <v>if(Name() == "TECHM.EQ-NSE") { includeOK = DateNum() &gt;= 1070905; }</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A361" s="4" t="s">
         <v>1225</v>
       </c>
@@ -40126,7 +40160,7 @@
         <v>if(Name() == "THERMAX.EQ-NSE") { includeOK = DateNum() &gt;= 1080821 AND DateNum() &lt; 1090626; }</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
         <v>1226</v>
       </c>
@@ -40215,7 +40249,7 @@
         <v>if(Name() == "TITAN.EQ-NSE") { includeOK = DateNum() &gt;= 1061229; }</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A363" s="4" t="s">
         <v>1227</v>
       </c>
@@ -40304,7 +40338,7 @@
         <v>if(Name() == "TORNTPHARM.EQ-NSE") { includeOK = DateNum() &gt;= 1160101; }</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A364" s="4" t="s">
         <v>1228</v>
       </c>
@@ -40393,7 +40427,7 @@
         <v>if(Name() == "TORNTPOWER.EQ-NSE") { includeOK = (DateNum() &gt;= 1080821 AND DateNum() &lt; 1090626) OR (DateNum() &gt;= 1160930); }</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A365" s="4" t="s">
         <v>1229</v>
       </c>
@@ -40482,7 +40516,7 @@
         <v>if(Name() == "TRIVENI.EQ-NSE") { includeOK = DateNum() &gt;= 1061229 AND DateNum() &lt; 1111230; }</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="s">
         <v>1230</v>
       </c>
@@ -40571,7 +40605,7 @@
         <v>if(Name() == "TTKPRESTIG.EQ-NSE") { includeOK = DateNum() &gt;= 1110718 AND DateNum() &lt; 1120928; }</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A367" s="4" t="s">
         <v>1231</v>
       </c>
@@ -40660,7 +40694,7 @@
         <v>if(Name() == "TTML.EQ-NSE") { includeOK = DateNum() &gt;= 1061229 AND DateNum() &lt; 1120928; }</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
         <v>1232</v>
       </c>
@@ -40749,7 +40783,7 @@
         <v>if(Name() == "TULIP.EQ-NSE") { includeOK = DateNum() &gt;= 1070905 AND DateNum() &lt; 1120224; }</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A369" s="4" t="s">
         <v>1233</v>
       </c>
@@ -40838,7 +40872,7 @@
         <v>if(Name() == "TV_18.EQ-NSE") { includeOK = DateNum() &gt;= 1080821 AND DateNum() &lt; 1110621; }</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A370" s="4" t="s">
         <v>1234</v>
       </c>
@@ -40927,7 +40961,7 @@
         <v>if(Name() == "TV18BRDCST.EQ-NSE") { includeOK = DateNum() &gt;= 1150928 AND DateNum() &lt; 1190628; }</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A371" s="4" t="s">
         <v>1235</v>
       </c>
@@ -41016,7 +41050,7 @@
         <v>if(Name() == "TVSMOTOR.EQ-NSE") { includeOK = (DateNum() &gt;= 1061229 AND DateNum() &lt; 1090626) OR (DateNum() &gt;= 1101029 AND DateNum() &lt; 1120928) OR DateNum() &gt;= 1140910; }</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A372" s="4" t="s">
         <v>1236</v>
       </c>
@@ -41105,7 +41139,7 @@
         <v>if(Name() == "UBL.EQ-NSE") { includeOK = DateNum() &gt;= 1131003; }</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A373" s="4" t="s">
         <v>1237</v>
       </c>
@@ -41194,7 +41228,7 @@
         <v>if(Name() == "UCOBANK.EQ-NSE") { includeOK = DateNum() &gt;= 1080821 AND DateNum() &lt; 1160701; }</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="s">
         <v>1238</v>
       </c>
@@ -41283,7 +41317,7 @@
         <v>if(Name() == "UJJIVAN.EQ-NSE") { includeOK = DateNum() &gt;= 1170331 AND DateNum() &lt; 1200827; }</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
         <v>1239</v>
       </c>
@@ -41369,7 +41403,7 @@
         <v>if(Name() == "ULTRACEMCO.EQ-NSE") { includeOK = DateNum() &gt;= 1061229; }</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="s">
         <v>1240</v>
       </c>
@@ -41458,7 +41492,7 @@
         <v>if(Name() == "UNIONBANK.EQ-NSE") { includeOK = DateNum() &gt;= 1061229 AND DateNum() &lt; 1191226; }</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A377" s="4" t="s">
         <v>1242</v>
       </c>
@@ -41547,7 +41581,7 @@
         <v>if(Name() == "UNITECH.EQ-NSE") { includeOK = DateNum() &gt;= 1070511 AND DateNum() &lt; 1160729; }</v>
       </c>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="s">
         <v>858</v>
       </c>
@@ -41636,7 +41670,7 @@
         <v>if(Name() == "UPL.EQ-NSE") { includeOK = DateNum() &gt;= 1070511; }</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A379" s="4" t="s">
         <v>1244</v>
       </c>
@@ -41725,7 +41759,7 @@
         <v>if(Name() == "UTVSOF.EQ-NSE") { includeOK = DateNum() &gt;= 1080821 AND DateNum() &lt; 1090626; }</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A380" s="4" t="s">
         <v>855</v>
       </c>
@@ -41814,7 +41848,7 @@
         <v>if(Name() == "VEDL.EQ-NSE") { includeOK = DateNum() &gt;= 1061229; }</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="s">
         <v>1245</v>
       </c>
@@ -41903,7 +41937,7 @@
         <v>if(Name() == "VGUARD.EQ-NSE") { includeOK = DateNum() &gt;= 1170428 AND DateNum() &lt; 1190628; }</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A382" s="4" t="s">
         <v>1246</v>
       </c>
@@ -41992,7 +42026,7 @@
         <v>if(Name() == "VIDEOIND.EQ-NSE") { includeOK = DateNum() &gt;= 1100219 AND DateNum() &lt; 1120928; }</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A383" s="4" t="s">
         <v>1247</v>
       </c>
@@ -42081,7 +42115,7 @@
         <v>if(Name() == "VIJAYABANK.EQ-NSE") { includeOK = DateNum() &gt;= 1061229 AND DateNum() &lt; 1131129; }</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A384" s="4" t="s">
         <v>1248</v>
       </c>
@@ -42170,7 +42204,7 @@
         <v>if(Name() == "VIPIND.EQ-NSE") { includeOK = DateNum() &gt;= 1110718 AND DateNum() &lt; 1120928; }</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A385" s="4" t="s">
         <v>1249</v>
       </c>
@@ -42259,7 +42293,7 @@
         <v>if(Name() == "VOLTAMP.EQ-NSE") { includeOK = DateNum() &gt;= 1080821 AND DateNum() &lt; 1090327; }</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="s">
         <v>1250</v>
       </c>
@@ -42348,7 +42382,7 @@
         <v>if(Name() == "VOLTAS.EQ-NSE") { includeOK = DateNum() &gt;= 1061229; }</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A387" s="11" t="s">
         <v>1251</v>
       </c>
@@ -42437,7 +42471,7 @@
         <v>if(Name() == "VSNL.EQ-NSE") { includeOK = DateNum() &gt;= 1061229 AND DateNum() &lt; 1080225; }</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A388" s="4" t="s">
         <v>1252</v>
       </c>
@@ -42526,7 +42560,7 @@
         <v>if(Name() == "WALCHANNAG.EQ-NSE") { includeOK = DateNum() &gt;= 1080821 AND DateNum() &lt; 1090327; }</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A389" s="4" t="s">
         <v>1253</v>
       </c>
@@ -42615,7 +42649,7 @@
         <v>if(Name() == "WELCORP.EQ-NSE") { includeOK = DateNum() &gt;= 1100517 AND DateNum() &lt; 1130426; }</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A390" s="4" t="s">
         <v>1254</v>
       </c>
@@ -42704,7 +42738,7 @@
         <v>if(Name() == "WELGUJ.EQ-NSE") { includeOK = DateNum() &gt;= 1070905 AND DateNum() &lt; 1100517; }</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A391" s="4" t="s">
         <v>1255</v>
       </c>
@@ -42793,7 +42827,7 @@
         <v>if(Name() == "WIPRO.EQ-NSE") { includeOK = DateNum() &gt;= 1061229; }</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A392" s="4" t="s">
         <v>1256</v>
       </c>
@@ -42882,7 +42916,7 @@
         <v>if(Name() == "WOCKPHARMA.EQ-NSE") { includeOK = (DateNum() &gt;= 1061229 AND DateNum() &lt; 1090626) OR (DateNum() &gt;= 1141128 AND DateNum() &lt; 1190628); }</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A393" s="4" t="s">
         <v>1257</v>
       </c>
@@ -42971,7 +43005,7 @@
         <v>if(Name() == "SITINET.EQ-NSE") { includeOK = DateNum() &gt;= 1071130 AND DateNum() &lt; 1090227; }</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A394" s="4" t="s">
         <v>1258</v>
       </c>
@@ -43060,7 +43094,7 @@
         <v>if(Name() == "YESBANK.EQ-NSE") { includeOK = DateNum() &gt;= 1070905 AND DateNum() &lt; 1200528; }</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A395" s="4" t="s">
         <v>1259</v>
       </c>
@@ -43149,7 +43183,7 @@
         <v>if(Name() == "ZEEL.EQ-NSE") { includeOK = DateNum() &gt;= 1070228; }</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A396" s="11" t="s">
         <v>1260</v>
       </c>
@@ -43238,7 +43272,7 @@
         <v>if(Name() == "ZEETELE.EQ-NSE") { includeOK = DateNum() &gt;= 1061229 AND DateNum() &lt; 1070228; }</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A397" s="4" t="s">
         <v>1276</v>
       </c>
@@ -43324,7 +43358,7 @@
         <v>if(Name() == "HDFCLIFE.EQ-NSE") { includeOK = DateNum() &gt;= 1200228; }</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A398" s="4" t="s">
         <v>1277</v>
       </c>
@@ -43410,7 +43444,7 @@
         <v>if(Name() == "BANDHANBNK.EQ-NSE") { includeOK = DateNum() &gt;= 1200228; }</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A399" s="4" t="s">
         <v>1280</v>
       </c>
@@ -43484,7 +43518,7 @@
         <v>if(Name() == "GODREJPROP.EQ-NSE") { includeOK = DateNum() &gt;= 1200326; }</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A400" s="4" t="s">
         <v>1282</v>
       </c>
@@ -43558,7 +43592,7 @@
         <v>if(Name() == "SBILIFE.EQ-NSE") { includeOK = DateNum() &gt;= 1200501; }</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A401" s="4" t="s">
         <v>1274</v>
       </c>
@@ -43632,7 +43666,7 @@
         <v>if(Name() == "TATACONSUM.EQ-NSE") { includeOK = DateNum() &gt;= 1200227; }</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A402" s="4" t="s">
         <v>1285</v>
       </c>
@@ -43706,7 +43740,7 @@
         <v>if(Name() == "ICICIGI.EQ-NSE") { includeOK = DateNum() &gt;= 1201102; }</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A403" s="4" t="s">
         <v>1288</v>
       </c>
@@ -43780,7 +43814,7 @@
         <v>if(Name() == "HDFCAMC.EQ-NSE") { includeOK = DateNum() &gt;= 1210101; }</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A404" s="4" t="s">
         <v>1292</v>
       </c>
@@ -43854,7 +43888,7 @@
         <v>if(Name() == "LALPATHLAB.EQ-NSE") { includeOK = DateNum() &gt;= 1210101; }</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A405" s="4" t="s">
         <v>1289</v>
       </c>
@@ -43928,7 +43962,7 @@
         <v>if(Name() == "AARTIIND.EQ-NSE") { includeOK = DateNum() &gt;= 1210101; }</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>1308</v>
       </c>
@@ -44002,7 +44036,7 @@
         <v>if(Name() == "ALKEM.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>1309</v>
       </c>
@@ -44079,7 +44113,7 @@
         <v>if(Name() == "APLLTD.EQ-NSE") { includeOK = DateNum() &gt;= 1210226 AND DateNum() &lt; 1220630; }</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>1310</v>
       </c>
@@ -44153,7 +44187,7 @@
         <v>if(Name() == "AUBANK.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>1311</v>
       </c>
@@ -44227,7 +44261,7 @@
         <v>if(Name() == "CUB.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>1312</v>
       </c>
@@ -44301,7 +44335,7 @@
         <v>if(Name() == "DEEPAKNTR.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>994</v>
       </c>
@@ -44375,7 +44409,7 @@
         <v>if(Name() == "GRANULES.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>1313</v>
       </c>
@@ -44449,7 +44483,7 @@
         <v>if(Name() == "GUJGASLTD.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="413" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>1314</v>
       </c>
@@ -44523,7 +44557,7 @@
         <v>if(Name() == "IRCTC.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>1315</v>
       </c>
@@ -44597,7 +44631,7 @@
         <v>if(Name() == "LTI.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>1316</v>
       </c>
@@ -44671,7 +44705,7 @@
         <v>if(Name() == "LTTS.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>1110</v>
       </c>
@@ -44745,7 +44779,7 @@
         <v>if(Name() == "MPHASIS.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>1321</v>
       </c>
@@ -44819,7 +44853,7 @@
         <v>if(Name() == "NAM_INDIA.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>1295</v>
       </c>
@@ -44893,7 +44927,7 @@
         <v>if(Name() == "NAVINFLUOR.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>1317</v>
       </c>
@@ -44970,7 +45004,7 @@
         <v>if(Name() == "PFIZER.EQ-NSE") { includeOK = DateNum() &gt;= 1210226 AND DateNum() &lt; 1220428; }</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>1318</v>
       </c>
@@ -45044,7 +45078,7 @@
         <v>if(Name() == "PIIND.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>1319</v>
       </c>
@@ -45118,7 +45152,7 @@
         <v>if(Name() == "TRENT.EQ-NSE") { includeOK = DateNum() &gt;= 1210226; }</v>
       </c>
     </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A422" s="4" t="s">
         <v>1325</v>
       </c>
@@ -45192,7 +45226,7 @@
         <v>if(Name() == "ABFRL.EQ-NSE") { includeOK = DateNum() &gt;= 1210622; }</v>
       </c>
     </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A423" s="4" t="s">
         <v>1326</v>
       </c>
@@ -45266,7 +45300,7 @@
         <v>if(Name() == "COROMANDEL.EQ-NSE") { includeOK = DateNum() &gt;= 1210622; }</v>
       </c>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A424" s="4" t="s">
         <v>1327</v>
       </c>
@@ -45340,7 +45374,7 @@
         <v>if(Name() == "METROPOLIS.EQ-NSE") { includeOK = DateNum() &gt;= 1210622; }</v>
       </c>
     </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A425" s="4" t="s">
         <v>1328</v>
       </c>
@@ -45414,7 +45448,7 @@
         <v>if(Name() == "ASTRAL.EQ-NSE") { includeOK = DateNum() &gt;= 1210730; }</v>
       </c>
     </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A426" s="4" t="s">
         <v>1337</v>
       </c>
@@ -45488,7 +45522,7 @@
         <v>if(Name() == "HAL.EQ-NSE") { includeOK = DateNum() &gt;= 1210827; }</v>
       </c>
     </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A427" s="4" t="s">
         <v>1338</v>
       </c>
@@ -45562,7 +45596,7 @@
         <v>if(Name() == "IEX.EQ-NSE") { includeOK = DateNum() &gt;= 1210827; }</v>
       </c>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A428" s="4" t="s">
         <v>1339</v>
       </c>
@@ -45636,7 +45670,7 @@
         <v>if(Name() == "IPCALAB.EQ-NSE") { includeOK = DateNum() &gt;= 1210827; }</v>
       </c>
     </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A429" s="4" t="s">
         <v>1340</v>
       </c>
@@ -45710,7 +45744,7 @@
         <v>if(Name() == "POLYCAB.EQ-NSE") { includeOK = DateNum() &gt;= 1210827; }</v>
       </c>
     </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A430" s="4" t="s">
         <v>1341</v>
       </c>
@@ -45784,7 +45818,7 @@
         <v>if(Name() == "DIXON.EQ-NSE") { includeOK = DateNum() &gt;= 1210827; }</v>
       </c>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A431" s="4" t="s">
         <v>1342</v>
       </c>
@@ -45858,7 +45892,7 @@
         <v>if(Name() == "INDIAMART.EQ-NSE") { includeOK = DateNum() &gt;= 1210827; }</v>
       </c>
     </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A432" s="4" t="s">
         <v>1343</v>
       </c>
@@ -45932,7 +45966,7 @@
         <v>if(Name() == "SYNGENE.EQ-NSE") { includeOK = DateNum() &gt;= 1210827; }</v>
       </c>
     </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A433" s="4" t="str">
         <f>+C433&amp;".EQ-NSE"</f>
         <v>ABBOTINDIA.EQ-NSE</v>
@@ -46007,7 +46041,7 @@
         <v>if(Name() == "ABBOTINDIA.EQ-NSE") { includeOK = DateNum() &gt;= 1211001; }</v>
       </c>
     </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A434" s="4" t="str">
         <f t="shared" ref="A434:A439" si="172">+C434&amp;".EQ-NSE"</f>
         <v>CROMPTON.EQ-NSE</v>
@@ -46082,7 +46116,7 @@
         <v>if(Name() == "CROMPTON.EQ-NSE") { includeOK = DateNum() &gt;= 1211001; }</v>
       </c>
     </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A435" s="4" t="str">
         <f t="shared" si="172"/>
         <v>DALBHARAT.EQ-NSE</v>
@@ -46157,7 +46191,7 @@
         <v>if(Name() == "DALBHARAT.EQ-NSE") { includeOK = DateNum() &gt;= 1211001; }</v>
       </c>
     </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A436" s="4" t="str">
         <f t="shared" si="172"/>
         <v>JKCEMENT.EQ-NSE</v>
@@ -46232,7 +46266,7 @@
         <v>if(Name() == "JKCEMENT.EQ-NSE") { includeOK = DateNum() &gt;= 1211001; }</v>
       </c>
     </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A437" s="4" t="str">
         <f t="shared" si="172"/>
         <v>OBEROIRLTY.EQ-NSE</v>
@@ -46307,7 +46341,7 @@
         <v>if(Name() == "OBEROIRLTY.EQ-NSE") { includeOK = DateNum() &gt;= 1211001; }</v>
       </c>
     </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A438" s="4" t="str">
         <f t="shared" si="172"/>
         <v>PERSISTENT.EQ-NSE</v>
@@ -46382,7 +46416,7 @@
         <v>if(Name() == "PERSISTENT.EQ-NSE") { includeOK = DateNum() &gt;= 1211001; }</v>
       </c>
     </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A439" s="4" t="str">
         <f t="shared" si="172"/>
         <v>ATUL.EQ-NSE</v>
@@ -46457,7 +46491,7 @@
         <v>if(Name() == "ATUL.EQ-NSE") { includeOK = DateNum() &gt;= 1211029; }</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A440" s="4" t="str">
         <f t="shared" ref="A440:A446" si="178">+C440&amp;".EQ-NSE"</f>
         <v>BSOFT.EQ-NSE</v>
@@ -46532,7 +46566,7 @@
         <v>if(Name() == "BSOFT.EQ-NSE") { includeOK = DateNum() &gt;= 1211029; }</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A441" s="4" t="str">
         <f t="shared" si="178"/>
         <v>LAURUSLABS.EQ-NSE</v>
@@ -46607,7 +46641,7 @@
         <v>if(Name() == "LAURUSLABS.EQ-NSE") { includeOK = DateNum() &gt;= 1211029; }</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A442" s="4" t="str">
         <f t="shared" si="178"/>
         <v>SBICARD.EQ-NSE</v>
@@ -46682,7 +46716,7 @@
         <v>if(Name() == "SBICARD.EQ-NSE") { includeOK = DateNum() &gt;= 1211029; }</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A443" s="4" t="str">
         <f t="shared" si="178"/>
         <v>WHIRLPOOL.EQ-NSE</v>
@@ -46757,7 +46791,7 @@
         <v>if(Name() == "WHIRLPOOL.EQ-NSE") { includeOK = DateNum() &gt;= 1211029; }</v>
       </c>
     </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A444" s="4" t="str">
         <f t="shared" si="178"/>
         <v>ABCAPITAL.EQ-NSE</v>
@@ -46832,7 +46866,7 @@
         <v>if(Name() == "ABCAPITAL.EQ-NSE") { includeOK = DateNum() &gt;= 1211231; }</v>
       </c>
     </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A445" s="4" t="str">
         <f t="shared" si="178"/>
         <v>HINDCOPPER.EQ-NSE</v>
@@ -46907,7 +46941,7 @@
         <v>if(Name() == "HINDCOPPER.EQ-NSE") { includeOK = DateNum() &gt;= 1211231; }</v>
       </c>
     </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A446" s="4" t="str">
         <f t="shared" si="178"/>
         <v>HONAUT.EQ-NSE</v>
@@ -46982,7 +47016,7 @@
         <v>if(Name() == "HONAUT.EQ-NSE") { includeOK = DateNum() &gt;= 1211231; }</v>
       </c>
     </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A447" s="4" t="str">
         <f t="shared" ref="A447" si="198">+C447&amp;".EQ-NSE"</f>
         <v>RAIN.EQ-NSE</v>
@@ -47057,7 +47091,7 @@
         <v>if(Name() == "RAIN.EQ-NSE") { includeOK = DateNum() &gt;= 1211231; }</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A448" s="4" t="str">
         <f t="shared" ref="A448:A449" si="206">+C448&amp;".EQ-NSE"</f>
         <v>INTELLECT.EQ-NSE</v>
@@ -47132,7 +47166,7 @@
         <v>if(Name() == "INTELLECT.EQ-NSE") { includeOK = DateNum() &gt;= 1220128; }</v>
       </c>
     </row>
-    <row r="449" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A449" s="4" t="str">
         <f t="shared" si="206"/>
         <v>ZYDUSLIFE.EQ-NSE</v>
@@ -47145,11 +47179,11 @@
         <v>1385</v>
       </c>
       <c r="D449" s="4">
-        <v>20220401</v>
+        <v>20220307</v>
       </c>
       <c r="J449" s="4">
         <f t="shared" si="207"/>
-        <v>1220401</v>
+        <v>1220307</v>
       </c>
       <c r="K449" s="4" t="str">
         <f t="shared" si="143"/>
@@ -47180,7 +47214,7 @@
       </c>
       <c r="R449" s="4" t="str">
         <f t="shared" ref="R449" si="213">IF($P449=R$2,"if(Name() == "&amp;Q449&amp;$B449&amp;Q449&amp;") { includeOK = DateNum() &gt;= "&amp;$J449&amp;"; }","")</f>
-        <v>if(Name() == "ZYDUSLIFE.EQ-NSE") { includeOK = DateNum() &gt;= 1220401; }</v>
+        <v>if(Name() == "ZYDUSLIFE.EQ-NSE") { includeOK = DateNum() &gt;= 1220307; }</v>
       </c>
       <c r="S449" s="4" t="str">
         <f t="shared" ref="S449" si="214">IF($P449=S$2,"if(Name() == "&amp;Q449&amp;$B449&amp;Q449&amp;") { includeOK = DateNum() &gt;= "&amp;$J449&amp;" AND DateNum() &lt; "&amp;$K449&amp;"; }","")</f>
@@ -47204,7 +47238,155 @@
       </c>
       <c r="X449" s="4" t="str">
         <f ca="1">OFFSET($R$2,COUNTA(R$3:R449),$P449-1)</f>
-        <v>if(Name() == "ZYDUSLIFE.EQ-NSE") { includeOK = DateNum() &gt;= 1220401; }</v>
+        <v>if(Name() == "ZYDUSLIFE.EQ-NSE") { includeOK = DateNum() &gt;= 1220307; }</v>
+      </c>
+    </row>
+    <row r="450" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A450" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B450" s="4" t="str">
+        <f>VLOOKUP(A450,'Name Changes'!$L$2:$N$1500,3,0)</f>
+        <v>SHRIRAMFIN.EQ-NSE</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D450" s="4">
+        <v>20221220</v>
+      </c>
+      <c r="J450" s="4">
+        <f t="shared" ref="J450:J451" si="219">IF((1&amp;RIGHT(LEFT(D450,4),2)&amp;RIGHT(D450,4))*1=1,"",(1&amp;RIGHT(LEFT(D450,4),2)&amp;RIGHT(D450,4))*1)</f>
+        <v>1221220</v>
+      </c>
+      <c r="K450" s="4" t="str">
+        <f t="shared" ref="K450:K451" si="220">IF((1&amp;RIGHT(LEFT(E450,4),2)&amp;RIGHT(E450,4))*1=1,"",(1&amp;RIGHT(LEFT(E450,4),2)&amp;RIGHT(E450,4))*1)</f>
+        <v/>
+      </c>
+      <c r="L450" s="4" t="str">
+        <f t="shared" ref="L450:L451" si="221">IF((1&amp;RIGHT(LEFT(F450,4),2)&amp;RIGHT(F450,4))*1=1,"",(1&amp;RIGHT(LEFT(F450,4),2)&amp;RIGHT(F450,4))*1)</f>
+        <v/>
+      </c>
+      <c r="M450" s="4" t="str">
+        <f t="shared" ref="M450:M451" si="222">IF((1&amp;RIGHT(LEFT(G450,4),2)&amp;RIGHT(G450,4))*1=1,"",(1&amp;RIGHT(LEFT(G450,4),2)&amp;RIGHT(G450,4))*1)</f>
+        <v/>
+      </c>
+      <c r="N450" s="4" t="str">
+        <f t="shared" ref="N450:N451" si="223">IF((1&amp;RIGHT(LEFT(H450,4),2)&amp;RIGHT(H450,4))*1=1,"",(1&amp;RIGHT(LEFT(H450,4),2)&amp;RIGHT(H450,4))*1)</f>
+        <v/>
+      </c>
+      <c r="O450" s="4" t="str">
+        <f t="shared" ref="O450:O451" si="224">IF((1&amp;RIGHT(LEFT(I450,4),2)&amp;RIGHT(I450,4))*1=1,"",(1&amp;RIGHT(LEFT(I450,4),2)&amp;RIGHT(I450,4))*1)</f>
+        <v/>
+      </c>
+      <c r="P450" s="8">
+        <f t="shared" ref="P450:P451" si="225">COUNT(D450:I450)</f>
+        <v>1</v>
+      </c>
+      <c r="Q450" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R450" s="4" t="str">
+        <f t="shared" ref="R450:R451" si="226">IF($P450=R$2,"if(Name() == "&amp;Q450&amp;$B450&amp;Q450&amp;") { includeOK = DateNum() &gt;= "&amp;$J450&amp;"; }","")</f>
+        <v>if(Name() == "SHRIRAMFIN.EQ-NSE") { includeOK = DateNum() &gt;= 1221220; }</v>
+      </c>
+      <c r="S450" s="4" t="str">
+        <f t="shared" ref="S450:S451" si="227">IF($P450=S$2,"if(Name() == "&amp;Q450&amp;$B450&amp;Q450&amp;") { includeOK = DateNum() &gt;= "&amp;$J450&amp;" AND DateNum() &lt; "&amp;$K450&amp;"; }","")</f>
+        <v/>
+      </c>
+      <c r="T450" s="4" t="str">
+        <f t="shared" ref="T450:T451" si="228">IF($P450=T$2,"if(Name() == "&amp;Q450&amp;$B450&amp;Q450&amp;") { includeOK = (DateNum() &gt;= "&amp;$J450&amp;" AND DateNum() &lt; "&amp;$K450&amp;") OR (DateNum() &gt;= "&amp;$L450&amp;"); }","")</f>
+        <v/>
+      </c>
+      <c r="U450" s="4" t="str">
+        <f t="shared" ref="U450:U451" si="229">IF($P450=U$2,"if(Name() == "&amp;Q450&amp;$B450&amp;Q450&amp;") { includeOK = (DateNum() &gt;= "&amp;$J450&amp;" AND DateNum() &lt; "&amp;$K450&amp;") OR (DateNum() &gt;= "&amp;$L450&amp;" AND DateNum() &lt; "&amp;$M450&amp;"); }","")</f>
+        <v/>
+      </c>
+      <c r="V450" s="4" t="str">
+        <f t="shared" ref="V450:V451" si="230">IF($P450=V$2,"if(Name() == "&amp;Q450&amp;$B450&amp;Q450&amp;") { includeOK = (DateNum() &gt;= "&amp;$J450&amp;" AND DateNum() &lt; "&amp;$K450&amp;") OR (DateNum() &gt;= "&amp;$L450&amp;" AND DateNum() &lt; "&amp;$M450&amp;") OR DateNum() &gt;= "&amp;$N450&amp;"; }","")</f>
+        <v/>
+      </c>
+      <c r="W450" s="4" t="str">
+        <f t="shared" ref="W450:W451" si="231">IF($P450=W$2,"if(Name() == "&amp;Q450&amp;$B450&amp;Q450&amp;") { includeOK = (DateNum() &gt;= "&amp;$J450&amp;" AND DateNum() &lt; "&amp;$K450&amp;") OR (DateNum() &gt;= "&amp;$L450&amp;" AND DateNum() &lt; "&amp;$M450&amp;") OR (DateNum() &gt;= "&amp;$N450&amp;" AND DateNum() &lt; "&amp;$O450&amp;") ; }","")</f>
+        <v/>
+      </c>
+      <c r="X450" s="4" t="str">
+        <f ca="1">OFFSET($R$2,COUNTA(R$3:R450),$P450-1)</f>
+        <v>if(Name() == "SHRIRAMFIN.EQ-NSE") { includeOK = DateNum() &gt;= 1221220; }</v>
+      </c>
+    </row>
+    <row r="451" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A451" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B451" s="4" t="str">
+        <f>VLOOKUP(A451,'Name Changes'!$L$2:$N$1500,3,0)</f>
+        <v>LTIM.EQ-NSE</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D451" s="4">
+        <v>20221205</v>
+      </c>
+      <c r="J451" s="4">
+        <f t="shared" si="219"/>
+        <v>1221205</v>
+      </c>
+      <c r="K451" s="4" t="str">
+        <f t="shared" si="220"/>
+        <v/>
+      </c>
+      <c r="L451" s="4" t="str">
+        <f t="shared" si="221"/>
+        <v/>
+      </c>
+      <c r="M451" s="4" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="N451" s="4" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="O451" s="4" t="str">
+        <f t="shared" si="224"/>
+        <v/>
+      </c>
+      <c r="P451" s="8">
+        <f t="shared" si="225"/>
+        <v>1</v>
+      </c>
+      <c r="Q451" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R451" s="4" t="str">
+        <f t="shared" si="226"/>
+        <v>if(Name() == "LTIM.EQ-NSE") { includeOK = DateNum() &gt;= 1221205; }</v>
+      </c>
+      <c r="S451" s="4" t="str">
+        <f t="shared" si="227"/>
+        <v/>
+      </c>
+      <c r="T451" s="4" t="str">
+        <f t="shared" si="228"/>
+        <v/>
+      </c>
+      <c r="U451" s="4" t="str">
+        <f t="shared" si="229"/>
+        <v/>
+      </c>
+      <c r="V451" s="4" t="str">
+        <f t="shared" si="230"/>
+        <v/>
+      </c>
+      <c r="W451" s="4" t="str">
+        <f t="shared" si="231"/>
+        <v/>
+      </c>
+      <c r="X451" s="4" t="str">
+        <f ca="1">OFFSET($R$2,COUNTA(R$3:R451),$P451-1)</f>
+        <v>if(Name() == "LTIM.EQ-NSE") { includeOK = DateNum() &gt;= 1221205; }</v>
       </c>
     </row>
   </sheetData>
@@ -47218,20 +47400,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O467"/>
+  <dimension ref="A1:O470"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="L469" sqref="L469"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="11" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="11" width="9.1328125" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="14" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
       <c r="L1" s="1" t="s">
         <v>1261</v>
       </c>
@@ -47242,7 +47424,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>416</v>
       </c>
@@ -47265,7 +47447,7 @@
         <v>3IINFOTECH.EQ-NSE</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>417</v>
       </c>
@@ -47288,7 +47470,7 @@
         <v>ABAN.EQ-NSE</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>418</v>
       </c>
@@ -47311,7 +47493,7 @@
         <v>ABB.EQ-NSE</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>419</v>
       </c>
@@ -47334,7 +47516,7 @@
         <v>ABGSHIP.EQ-NSE</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>420</v>
       </c>
@@ -47357,7 +47539,7 @@
         <v>ABIRLANUVO.EQ-NSE</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>421</v>
       </c>
@@ -47380,7 +47562,7 @@
         <v>ACC.EQ-NSE</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>422</v>
       </c>
@@ -47403,7 +47585,7 @@
         <v>ADANIENT.EQ-NSE</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>423</v>
       </c>
@@ -47426,7 +47608,7 @@
         <v>ADANIPORTS.EQ-NSE</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>424</v>
       </c>
@@ -47449,7 +47631,7 @@
         <v>ADANIPOWER.EQ-NSE</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>425</v>
       </c>
@@ -47478,7 +47660,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>426</v>
       </c>
@@ -47501,7 +47683,7 @@
         <v>AIAENG.EQ-NSE</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>427</v>
       </c>
@@ -47530,7 +47712,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>428</v>
       </c>
@@ -47553,7 +47735,7 @@
         <v>AIRDECCAN.EQ-NSE</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>429</v>
       </c>
@@ -47576,7 +47758,7 @@
         <v>AJANTPHARM.EQ-NSE</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>430</v>
       </c>
@@ -47599,7 +47781,7 @@
         <v>AKRUTI.EQ-NSE</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>431</v>
       </c>
@@ -47622,7 +47804,7 @@
         <v>ALBK.EQ-NSE</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>432</v>
       </c>
@@ -47645,7 +47827,7 @@
         <v>ALOKTEXT.EQ-NSE</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>433</v>
       </c>
@@ -47668,7 +47850,7 @@
         <v>ALSTOMT_D.EQ-NSE</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>434</v>
       </c>
@@ -47691,7 +47873,7 @@
         <v>AMARAJABAT.EQ-NSE</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>435</v>
       </c>
@@ -47714,7 +47896,7 @@
         <v>AMBUJACEM.EQ-NSE</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>436</v>
       </c>
@@ -47737,7 +47919,7 @@
         <v>AMTEKAUTO.EQ-NSE</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>437</v>
       </c>
@@ -47760,7 +47942,7 @@
         <v>ANDHRABANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>438</v>
       </c>
@@ -47783,7 +47965,7 @@
         <v>ANSALINFRA.EQ-NSE</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
         <v>439</v>
       </c>
@@ -47812,7 +47994,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
         <v>440</v>
       </c>
@@ -47835,7 +48017,7 @@
         <v>APOLLOHOSP.EQ-NSE</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>441</v>
       </c>
@@ -47858,7 +48040,7 @@
         <v>APOLLOTYRE.EQ-NSE</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
         <v>442</v>
       </c>
@@ -47881,7 +48063,7 @@
         <v>APTECHT.EQ-NSE</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>443</v>
       </c>
@@ -47910,7 +48092,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
         <v>444</v>
       </c>
@@ -47933,7 +48115,7 @@
         <v>ARVIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>445</v>
       </c>
@@ -47956,7 +48138,7 @@
         <v>ARVINDMILL.EQ-NSE</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
         <v>446</v>
       </c>
@@ -47979,7 +48161,7 @@
         <v>ASHOKLEY.EQ-NSE</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>447</v>
       </c>
@@ -48002,7 +48184,7 @@
         <v>ASIANPAINT.EQ-NSE</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>448</v>
       </c>
@@ -48025,7 +48207,7 @@
         <v>AUROPHARMA.EQ-NSE</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>449</v>
       </c>
@@ -48048,7 +48230,7 @@
         <v>AXISBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
         <v>450</v>
       </c>
@@ -48071,7 +48253,7 @@
         <v>BAJAJ_AUTO.EQ-NSE</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
         <v>451</v>
       </c>
@@ -48094,7 +48276,7 @@
         <v>BAJAJAUTO.EQ-NSE</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
         <v>452</v>
       </c>
@@ -48117,7 +48299,7 @@
         <v>BAJAJFINSV.EQ-NSE</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
         <v>453</v>
       </c>
@@ -48140,7 +48322,7 @@
         <v>BAJAJHIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
         <v>454</v>
       </c>
@@ -48163,7 +48345,7 @@
         <v>BAJAJHLDNG.EQ-NSE</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
         <v>455</v>
       </c>
@@ -48186,7 +48368,7 @@
         <v>BAJFINANCE.EQ-NSE</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
         <v>456</v>
       </c>
@@ -48209,7 +48391,7 @@
         <v>BALAJITELE.EQ-NSE</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
         <v>457</v>
       </c>
@@ -48232,7 +48414,7 @@
         <v>BALKRISIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B44" s="2" t="s">
         <v>458</v>
       </c>
@@ -48255,7 +48437,7 @@
         <v>BALLARPUR.EQ-NSE</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
         <v>459</v>
       </c>
@@ -48278,7 +48460,7 @@
         <v>BALRAMCHIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
         <v>460</v>
       </c>
@@ -48301,7 +48483,7 @@
         <v>BANKBARODA.EQ-NSE</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
         <v>461</v>
       </c>
@@ -48324,7 +48506,7 @@
         <v>BANKINDIA.EQ-NSE</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
         <v>462</v>
       </c>
@@ -48347,7 +48529,7 @@
         <v>BATAINDIA.EQ-NSE</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
         <v>463</v>
       </c>
@@ -48370,7 +48552,7 @@
         <v>BEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B50" s="2" t="s">
         <v>464</v>
       </c>
@@ -48393,7 +48575,7 @@
         <v>BEML.EQ-NSE</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B51" s="2" t="s">
         <v>465</v>
       </c>
@@ -48416,7 +48598,7 @@
         <v>BERGEPAINT.EQ-NSE</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
         <v>466</v>
       </c>
@@ -48439,7 +48621,7 @@
         <v>BFUTILITIE.EQ-NSE</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B53" s="2" t="s">
         <v>467</v>
       </c>
@@ -48462,7 +48644,7 @@
         <v>BGRENERGY.EQ-NSE</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B54" s="2" t="s">
         <v>468</v>
       </c>
@@ -48485,7 +48667,7 @@
         <v>BHARATFIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B55" s="2" t="s">
         <v>469</v>
       </c>
@@ -48508,7 +48690,7 @@
         <v>BHARATFORG.EQ-NSE</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B56" s="2" t="s">
         <v>470</v>
       </c>
@@ -48531,7 +48713,7 @@
         <v>BHARTIARTL.EQ-NSE</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B57" s="2" t="s">
         <v>471</v>
       </c>
@@ -48554,7 +48736,7 @@
         <v>BHEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B58" s="2" t="s">
         <v>472</v>
       </c>
@@ -48577,7 +48759,7 @@
         <v>BHUSANSTL.EQ-NSE</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B59" s="2" t="s">
         <v>473</v>
       </c>
@@ -48600,7 +48782,7 @@
         <v>BILT.EQ-NSE</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B60" s="2" t="s">
         <v>474</v>
       </c>
@@ -48623,7 +48805,7 @@
         <v>BINDALAGRO.EQ-NSE</v>
       </c>
     </row>
-    <row r="61" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B61" s="2" t="s">
         <v>475</v>
       </c>
@@ -48646,7 +48828,7 @@
         <v>BIOCON.EQ-NSE</v>
       </c>
     </row>
-    <row r="62" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B62" s="2" t="s">
         <v>476</v>
       </c>
@@ -48669,7 +48851,7 @@
         <v>BIRLACORPN.EQ-NSE</v>
       </c>
     </row>
-    <row r="63" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B63" s="2" t="s">
         <v>477</v>
       </c>
@@ -48692,7 +48874,7 @@
         <v>BIRLAJUTE.EQ-NSE</v>
       </c>
     </row>
-    <row r="64" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B64" s="2" t="s">
         <v>478</v>
       </c>
@@ -48715,7 +48897,7 @@
         <v>BOMDYEING.EQ-NSE</v>
       </c>
     </row>
-    <row r="65" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B65" s="2" t="s">
         <v>479</v>
       </c>
@@ -48738,7 +48920,7 @@
         <v>BONGAIREFN.EQ-NSE</v>
       </c>
     </row>
-    <row r="66" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B66" s="2" t="s">
         <v>480</v>
       </c>
@@ -48761,7 +48943,7 @@
         <v>BOSCHLTD.EQ-NSE</v>
       </c>
     </row>
-    <row r="67" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B67" s="2" t="s">
         <v>481</v>
       </c>
@@ -48784,7 +48966,7 @@
         <v>BPCL.EQ-NSE</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B68" s="2" t="s">
         <v>482</v>
       </c>
@@ -48807,7 +48989,7 @@
         <v>BRFL.EQ-NSE</v>
       </c>
     </row>
-    <row r="69" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B69" s="2" t="s">
         <v>483</v>
       </c>
@@ -48830,7 +49012,7 @@
         <v>BRIGADE.EQ-NSE</v>
       </c>
     </row>
-    <row r="70" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B70" s="2" t="s">
         <v>484</v>
       </c>
@@ -48853,7 +49035,7 @@
         <v>BRITANNIA.EQ-NSE</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B71" s="2" t="s">
         <v>485</v>
       </c>
@@ -48876,7 +49058,7 @@
         <v>CADILAHC.EQ-NSE</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B72" s="2" t="s">
         <v>486</v>
       </c>
@@ -48899,7 +49081,7 @@
         <v>CAIRN.EQ-NSE</v>
       </c>
     </row>
-    <row r="73" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B73" s="2" t="s">
         <v>487</v>
       </c>
@@ -48922,7 +49104,7 @@
         <v>CANBK.EQ-NSE</v>
       </c>
     </row>
-    <row r="74" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B74" s="2" t="s">
         <v>488</v>
       </c>
@@ -48945,7 +49127,7 @@
         <v>CANFINHOME.EQ-NSE</v>
       </c>
     </row>
-    <row r="75" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B75" s="2" t="s">
         <v>489</v>
       </c>
@@ -48968,7 +49150,7 @@
         <v>CAPF.EQ-NSE</v>
       </c>
     </row>
-    <row r="76" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B76" s="2" t="s">
         <v>490</v>
       </c>
@@ -48991,7 +49173,7 @@
         <v>CASTROLIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="77" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B77" s="2" t="s">
         <v>491</v>
       </c>
@@ -49014,7 +49196,7 @@
         <v>CEATLTD.EQ-NSE</v>
       </c>
     </row>
-    <row r="78" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B78" s="2" t="s">
         <v>492</v>
       </c>
@@ -49037,7 +49219,7 @@
         <v>CENTRALBK.EQ-NSE</v>
       </c>
     </row>
-    <row r="79" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B79" s="2" t="s">
         <v>493</v>
       </c>
@@ -49060,7 +49242,7 @@
         <v>CENTURYTEX.EQ-NSE</v>
       </c>
     </row>
-    <row r="80" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B80" s="2" t="s">
         <v>494</v>
       </c>
@@ -49083,7 +49265,7 @@
         <v>CESC.EQ-NSE</v>
       </c>
     </row>
-    <row r="81" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B81" s="2" t="s">
         <v>495</v>
       </c>
@@ -49106,7 +49288,7 @@
         <v>CGPOWER.EQ-NSE</v>
       </c>
     </row>
-    <row r="82" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B82" s="2" t="s">
         <v>496</v>
       </c>
@@ -49129,7 +49311,7 @@
         <v>CHAMBLFERT.EQ-NSE</v>
       </c>
     </row>
-    <row r="83" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B83" s="2" t="s">
         <v>497</v>
       </c>
@@ -49152,7 +49334,7 @@
         <v>CHENNPETRO.EQ-NSE</v>
       </c>
     </row>
-    <row r="84" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B84" s="2" t="s">
         <v>498</v>
       </c>
@@ -49175,7 +49357,7 @@
         <v>CHOLAFIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="85" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B85" s="2" t="s">
         <v>499</v>
       </c>
@@ -49198,7 +49380,7 @@
         <v>CIPLA.EQ-NSE</v>
       </c>
     </row>
-    <row r="86" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B86" s="2" t="s">
         <v>500</v>
       </c>
@@ -49221,7 +49403,7 @@
         <v>CMC.EQ-NSE</v>
       </c>
     </row>
-    <row r="87" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B87" s="2" t="s">
         <v>501</v>
       </c>
@@ -49244,7 +49426,7 @@
         <v>COALINDIA.EQ-NSE</v>
       </c>
     </row>
-    <row r="88" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B88" s="2" t="s">
         <v>502</v>
       </c>
@@ -49267,7 +49449,7 @@
         <v>COLGATE.EQ-NSE</v>
       </c>
     </row>
-    <row r="89" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B89" s="2" t="s">
         <v>503</v>
       </c>
@@ -49290,7 +49472,7 @@
         <v>COLPAL.EQ-NSE</v>
       </c>
     </row>
-    <row r="90" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
         <v>504</v>
       </c>
@@ -49313,7 +49495,7 @@
         <v>CONCOR.EQ-NSE</v>
       </c>
     </row>
-    <row r="91" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
         <v>505</v>
       </c>
@@ -49336,7 +49518,7 @@
         <v>COREEDUTEC.EQ-NSE</v>
       </c>
     </row>
-    <row r="92" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B92" s="2" t="s">
         <v>506</v>
       </c>
@@ -49359,7 +49541,7 @@
         <v>COREPROTEC.EQ-NSE</v>
       </c>
     </row>
-    <row r="93" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B93" s="2" t="s">
         <v>507</v>
       </c>
@@ -49382,7 +49564,7 @@
         <v>CORPBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="94" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B94" s="2" t="s">
         <v>508</v>
       </c>
@@ -49405,7 +49587,7 @@
         <v>CROMPGREAV.EQ-NSE</v>
       </c>
     </row>
-    <row r="95" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B95" s="2" t="s">
         <v>509</v>
       </c>
@@ -49428,7 +49610,7 @@
         <v>CUMMINSIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="96" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B96" s="2" t="s">
         <v>510</v>
       </c>
@@ -49451,7 +49633,7 @@
         <v>DABUR.EQ-NSE</v>
       </c>
     </row>
-    <row r="97" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
         <v>511</v>
       </c>
@@ -49474,7 +49656,7 @@
         <v>DALMIABHA.EQ-NSE</v>
       </c>
     </row>
-    <row r="98" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B98" s="2" t="s">
         <v>512</v>
       </c>
@@ -49503,7 +49685,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="99" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B99" s="2" t="s">
         <v>513</v>
       </c>
@@ -49526,7 +49708,7 @@
         <v>DCBBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="100" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B100" s="2" t="s">
         <v>514</v>
       </c>
@@ -49549,7 +49731,7 @@
         <v>DCHL.EQ-NSE</v>
       </c>
     </row>
-    <row r="101" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B101" s="2" t="s">
         <v>515</v>
       </c>
@@ -49572,7 +49754,7 @@
         <v>DELTACORP.EQ-NSE</v>
       </c>
     </row>
-    <row r="102" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B102" s="2" t="s">
         <v>516</v>
       </c>
@@ -49595,7 +49777,7 @@
         <v>DENABANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="103" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B103" s="2" t="s">
         <v>517</v>
       </c>
@@ -49618,7 +49800,7 @@
         <v>DHANBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="104" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B104" s="2" t="s">
         <v>518</v>
       </c>
@@ -49641,7 +49823,7 @@
         <v>DHFL.EQ-NSE</v>
       </c>
     </row>
-    <row r="105" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B105" s="2" t="s">
         <v>519</v>
       </c>
@@ -49664,7 +49846,7 @@
         <v>DISHTV.EQ-NSE</v>
       </c>
     </row>
-    <row r="106" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B106" s="2" t="s">
         <v>520</v>
       </c>
@@ -49687,7 +49869,7 @@
         <v>DIVISLAB.EQ-NSE</v>
       </c>
     </row>
-    <row r="107" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B107" s="2" t="s">
         <v>521</v>
       </c>
@@ -49710,7 +49892,7 @@
         <v>DLF.EQ-NSE</v>
       </c>
     </row>
-    <row r="108" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B108" s="2" t="s">
         <v>522</v>
       </c>
@@ -49733,7 +49915,7 @@
         <v>DRREDDY.EQ-NSE</v>
       </c>
     </row>
-    <row r="109" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B109" s="2" t="s">
         <v>523</v>
       </c>
@@ -49756,7 +49938,7 @@
         <v>EDELWEISS.EQ-NSE</v>
       </c>
     </row>
-    <row r="110" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B110" s="2" t="s">
         <v>524</v>
       </c>
@@ -49779,7 +49961,7 @@
         <v>EDUCOMP.EQ-NSE</v>
       </c>
     </row>
-    <row r="111" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B111" s="2" t="s">
         <v>525</v>
       </c>
@@ -49802,7 +49984,7 @@
         <v>EICHERMOT.EQ-NSE</v>
       </c>
     </row>
-    <row r="112" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B112" s="2" t="s">
         <v>526</v>
       </c>
@@ -49825,7 +50007,7 @@
         <v>EKC.EQ-NSE</v>
       </c>
     </row>
-    <row r="113" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B113" s="2" t="s">
         <v>527</v>
       </c>
@@ -49848,7 +50030,7 @@
         <v>ENGINERSIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="114" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B114" s="2" t="s">
         <v>528</v>
       </c>
@@ -49871,7 +50053,7 @@
         <v>EQUITAS.EQ-NSE</v>
       </c>
     </row>
-    <row r="115" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B115" s="2" t="s">
         <v>529</v>
       </c>
@@ -49894,7 +50076,7 @@
         <v>ESCORTS.EQ-NSE</v>
       </c>
     </row>
-    <row r="116" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B116" s="2" t="s">
         <v>530</v>
       </c>
@@ -49917,7 +50099,7 @@
         <v>ESSAROIL.EQ-NSE</v>
       </c>
     </row>
-    <row r="117" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B117" s="2" t="s">
         <v>531</v>
       </c>
@@ -49940,7 +50122,7 @@
         <v>EVERONN.EQ-NSE</v>
       </c>
     </row>
-    <row r="118" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B118" s="2" t="s">
         <v>532</v>
       </c>
@@ -49963,7 +50145,7 @@
         <v>EXIDEIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="119" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B119" s="2" t="s">
         <v>533</v>
       </c>
@@ -49986,7 +50168,7 @@
         <v>FEDERALBNK.EQ-NSE</v>
       </c>
     </row>
-    <row r="120" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B120" s="2" t="s">
         <v>534</v>
       </c>
@@ -50009,7 +50191,7 @@
         <v>FINANTECH.EQ-NSE</v>
       </c>
     </row>
-    <row r="121" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B121" s="2" t="s">
         <v>535</v>
       </c>
@@ -50032,7 +50214,7 @@
         <v>FORTIS.EQ-NSE</v>
       </c>
     </row>
-    <row r="122" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B122" s="2" t="s">
         <v>536</v>
       </c>
@@ -50061,7 +50243,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="123" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B123" s="2" t="s">
         <v>537</v>
       </c>
@@ -50084,7 +50266,7 @@
         <v>FSL.EQ-NSE</v>
       </c>
     </row>
-    <row r="124" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B124" s="2" t="s">
         <v>538</v>
       </c>
@@ -50107,7 +50289,7 @@
         <v>GAIL.EQ-NSE</v>
       </c>
     </row>
-    <row r="125" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B125" s="2" t="s">
         <v>539</v>
       </c>
@@ -50130,7 +50312,7 @@
         <v>GBN.EQ-NSE</v>
       </c>
     </row>
-    <row r="126" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B126" s="2" t="s">
         <v>540</v>
       </c>
@@ -50153,7 +50335,7 @@
         <v>GDL.EQ-NSE</v>
       </c>
     </row>
-    <row r="127" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B127" s="2" t="s">
         <v>541</v>
       </c>
@@ -50176,7 +50358,7 @@
         <v>GESCOCORP.EQ-NSE</v>
       </c>
     </row>
-    <row r="128" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B128" s="2" t="s">
         <v>542</v>
       </c>
@@ -50199,7 +50381,7 @@
         <v>GESHIP.EQ-NSE</v>
       </c>
     </row>
-    <row r="129" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B129" s="2" t="s">
         <v>543</v>
       </c>
@@ -50222,7 +50404,7 @@
         <v>GITANJALI.EQ-NSE</v>
       </c>
     </row>
-    <row r="130" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B130" s="2" t="s">
         <v>544</v>
       </c>
@@ -50245,7 +50427,7 @@
         <v>GLAXO.EQ-NSE</v>
       </c>
     </row>
-    <row r="131" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B131" s="2" t="s">
         <v>545</v>
       </c>
@@ -50268,7 +50450,7 @@
         <v>GLENMARK.EQ-NSE</v>
       </c>
     </row>
-    <row r="132" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B132" s="2" t="s">
         <v>546</v>
       </c>
@@ -50291,7 +50473,7 @@
         <v>GMDCLTD.EQ-NSE</v>
       </c>
     </row>
-    <row r="133" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B133" s="2" t="s">
         <v>547</v>
       </c>
@@ -50314,7 +50496,7 @@
         <v>GMRINFRA.EQ-NSE</v>
       </c>
     </row>
-    <row r="134" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B134" s="2" t="s">
         <v>548</v>
       </c>
@@ -50337,7 +50519,7 @@
         <v>GNFC.EQ-NSE</v>
       </c>
     </row>
-    <row r="135" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B135" s="2" t="s">
         <v>549</v>
       </c>
@@ -50360,7 +50542,7 @@
         <v>GODFRYPHLP.EQ-NSE</v>
       </c>
     </row>
-    <row r="136" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B136" s="2" t="s">
         <v>550</v>
       </c>
@@ -50383,7 +50565,7 @@
         <v>GODREJCP.EQ-NSE</v>
       </c>
     </row>
-    <row r="137" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B137" s="2" t="s">
         <v>551</v>
       </c>
@@ -50406,7 +50588,7 @@
         <v>GODREJIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="138" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B138" s="2" t="s">
         <v>552</v>
       </c>
@@ -50429,7 +50611,7 @@
         <v>GRANULES.EQ-NSE</v>
       </c>
     </row>
-    <row r="139" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B139" s="2" t="s">
         <v>553</v>
       </c>
@@ -50452,7 +50634,7 @@
         <v>GRASIM.EQ-NSE</v>
       </c>
     </row>
-    <row r="140" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B140" s="2" t="s">
         <v>554</v>
       </c>
@@ -50475,7 +50657,7 @@
         <v>GSFC.EQ-NSE</v>
       </c>
     </row>
-    <row r="141" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B141" s="2" t="s">
         <v>555</v>
       </c>
@@ -50498,7 +50680,7 @@
         <v>GSKCONS.EQ-NSE</v>
       </c>
     </row>
-    <row r="142" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B142" s="2" t="s">
         <v>556</v>
       </c>
@@ -50521,7 +50703,7 @@
         <v>GSPL.EQ-NSE</v>
       </c>
     </row>
-    <row r="143" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B143" s="2" t="s">
         <v>557</v>
       </c>
@@ -50544,7 +50726,7 @@
         <v>GTL.EQ-NSE</v>
       </c>
     </row>
-    <row r="144" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B144" s="2" t="s">
         <v>558</v>
       </c>
@@ -50567,7 +50749,7 @@
         <v>GTLINFRA.EQ-NSE</v>
       </c>
     </row>
-    <row r="145" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B145" s="2" t="s">
         <v>559</v>
       </c>
@@ -50590,7 +50772,7 @@
         <v>GTOFFSHORE.EQ-NSE</v>
       </c>
     </row>
-    <row r="146" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B146" s="2" t="s">
         <v>560</v>
       </c>
@@ -50613,7 +50795,7 @@
         <v>GUJALKALI.EQ-NSE</v>
       </c>
     </row>
-    <row r="147" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B147" s="2" t="s">
         <v>561</v>
       </c>
@@ -50636,7 +50818,7 @@
         <v>GUJAMBCEM.EQ-NSE</v>
       </c>
     </row>
-    <row r="148" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B148" s="2" t="s">
         <v>562</v>
       </c>
@@ -50659,7 +50841,7 @@
         <v>GUJFLUORO.EQ-NSE</v>
       </c>
     </row>
-    <row r="149" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B149" s="2" t="s">
         <v>563</v>
       </c>
@@ -50682,7 +50864,7 @@
         <v>GVKPIL.EQ-NSE</v>
       </c>
     </row>
-    <row r="150" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B150" s="2" t="s">
         <v>564</v>
       </c>
@@ -50705,7 +50887,7 @@
         <v>HAVELLS.EQ-NSE</v>
       </c>
     </row>
-    <row r="151" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B151" s="2" t="s">
         <v>565</v>
       </c>
@@ -50728,7 +50910,7 @@
         <v>HCC.EQ-NSE</v>
       </c>
     </row>
-    <row r="152" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B152" s="2" t="s">
         <v>566</v>
       </c>
@@ -50751,7 +50933,7 @@
         <v>HCL_INSYS.EQ-NSE</v>
       </c>
     </row>
-    <row r="153" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B153" s="2" t="s">
         <v>567</v>
       </c>
@@ -50774,7 +50956,7 @@
         <v>HCLTECH.EQ-NSE</v>
       </c>
     </row>
-    <row r="154" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B154" s="2" t="s">
         <v>568</v>
       </c>
@@ -50797,7 +50979,7 @@
         <v>HDFC.EQ-NSE</v>
       </c>
     </row>
-    <row r="155" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B155" s="2" t="s">
         <v>569</v>
       </c>
@@ -50820,7 +51002,7 @@
         <v>HDFCBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="156" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B156" s="2" t="s">
         <v>570</v>
       </c>
@@ -50843,7 +51025,7 @@
         <v>HDIL.EQ-NSE</v>
       </c>
     </row>
-    <row r="157" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B157" s="2" t="s">
         <v>571</v>
       </c>
@@ -50872,7 +51054,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="158" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B158" s="2" t="s">
         <v>572</v>
       </c>
@@ -50895,7 +51077,7 @@
         <v>HEROMOTOCO.EQ-NSE</v>
       </c>
     </row>
-    <row r="159" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B159" s="2" t="s">
         <v>573</v>
       </c>
@@ -50918,7 +51100,7 @@
         <v>HEXAWARE.EQ-NSE</v>
       </c>
     </row>
-    <row r="160" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B160" s="2" t="s">
         <v>574</v>
       </c>
@@ -50941,7 +51123,7 @@
         <v>HINDALC0.EQ-NSE</v>
       </c>
     </row>
-    <row r="161" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B161" s="2" t="s">
         <v>575</v>
       </c>
@@ -50964,7 +51146,7 @@
         <v>HINDALCO.EQ-NSE</v>
       </c>
     </row>
-    <row r="162" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B162" s="2" t="s">
         <v>576</v>
       </c>
@@ -50987,7 +51169,7 @@
         <v>HINDLEVER.EQ-NSE</v>
       </c>
     </row>
-    <row r="163" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B163" s="2" t="s">
         <v>577</v>
       </c>
@@ -51010,7 +51192,7 @@
         <v>HINDOILEXP.EQ-NSE</v>
       </c>
     </row>
-    <row r="164" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B164" s="2" t="s">
         <v>578</v>
       </c>
@@ -51033,7 +51215,7 @@
         <v>HINDPETRO.EQ-NSE</v>
       </c>
     </row>
-    <row r="165" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B165" s="2" t="s">
         <v>579</v>
       </c>
@@ -51056,7 +51238,7 @@
         <v>HINDUJATMT.EQ-NSE</v>
       </c>
     </row>
-    <row r="166" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B166" s="2" t="s">
         <v>580</v>
       </c>
@@ -51079,7 +51261,7 @@
         <v>HINDUJAVEN.EQ-NSE</v>
       </c>
     </row>
-    <row r="167" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B167" s="2" t="s">
         <v>581</v>
       </c>
@@ -51102,7 +51284,7 @@
         <v>HINDUNILVR.EQ-NSE</v>
       </c>
     </row>
-    <row r="168" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B168" s="2" t="s">
         <v>582</v>
       </c>
@@ -51125,7 +51307,7 @@
         <v>HINDZINC.EQ-NSE</v>
       </c>
     </row>
-    <row r="169" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B169" s="2" t="s">
         <v>583</v>
       </c>
@@ -51148,7 +51330,7 @@
         <v>HOTELEELA.EQ-NSE</v>
       </c>
     </row>
-    <row r="170" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B170" s="2" t="s">
         <v>584</v>
       </c>
@@ -51171,7 +51353,7 @@
         <v>HTMT.EQ-NSE</v>
       </c>
     </row>
-    <row r="171" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B171" s="2" t="s">
         <v>585</v>
       </c>
@@ -51194,7 +51376,7 @@
         <v>HTMTGLOBAL.EQ-NSE</v>
       </c>
     </row>
-    <row r="172" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B172" s="2" t="s">
         <v>586</v>
       </c>
@@ -51217,7 +51399,7 @@
         <v>I_FLEX.EQ-NSE</v>
       </c>
     </row>
-    <row r="173" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B173" s="2" t="s">
         <v>587</v>
       </c>
@@ -51240,7 +51422,7 @@
         <v>IBN18.EQ-NSE</v>
       </c>
     </row>
-    <row r="174" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B174" s="2" t="s">
         <v>588</v>
       </c>
@@ -51263,7 +51445,7 @@
         <v>IBREALEST.EQ-NSE</v>
       </c>
     </row>
-    <row r="175" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B175" s="2" t="s">
         <v>589</v>
       </c>
@@ -51286,7 +51468,7 @@
         <v>IBULHSGFIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="176" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B176" s="2" t="s">
         <v>590</v>
       </c>
@@ -51309,7 +51491,7 @@
         <v>ICICIBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="177" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B177" s="2" t="s">
         <v>591</v>
       </c>
@@ -51332,7 +51514,7 @@
         <v>ICICIPRULI.EQ-NSE</v>
       </c>
     </row>
-    <row r="178" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B178" s="2" t="s">
         <v>592</v>
       </c>
@@ -51355,7 +51537,7 @@
         <v>ICIL.EQ-NSE</v>
       </c>
     </row>
-    <row r="179" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B179" s="2" t="s">
         <v>593</v>
       </c>
@@ -51378,7 +51560,7 @@
         <v>ICSA.EQ-NSE</v>
       </c>
     </row>
-    <row r="180" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B180" s="2" t="s">
         <v>594</v>
       </c>
@@ -51401,7 +51583,7 @@
         <v>IDBI.EQ-NSE</v>
       </c>
     </row>
-    <row r="181" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B181" s="2" t="s">
         <v>595</v>
       </c>
@@ -51424,7 +51606,7 @@
         <v>IDEA.EQ-NSE</v>
       </c>
     </row>
-    <row r="182" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B182" s="2" t="s">
         <v>596</v>
       </c>
@@ -51447,7 +51629,7 @@
         <v>IDFC.EQ-NSE</v>
       </c>
     </row>
-    <row r="183" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B183" s="2" t="s">
         <v>597</v>
       </c>
@@ -51473,7 +51655,7 @@
         <v>IDFCFIRSTB.EQ-NSE</v>
       </c>
     </row>
-    <row r="184" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B184" s="2" t="s">
         <v>598</v>
       </c>
@@ -51496,7 +51678,7 @@
         <v>IFCI.EQ-NSE</v>
       </c>
     </row>
-    <row r="185" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B185" s="2" t="s">
         <v>599</v>
       </c>
@@ -51519,7 +51701,7 @@
         <v>IGL.EQ-NSE</v>
       </c>
     </row>
-    <row r="186" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B186" s="2" t="s">
         <v>600</v>
       </c>
@@ -51542,7 +51724,7 @@
         <v>INDHOTEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="187" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B187" s="2" t="s">
         <v>601</v>
       </c>
@@ -51565,7 +51747,7 @@
         <v>INDIACEM.EQ-NSE</v>
       </c>
     </row>
-    <row r="188" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B188" s="2" t="s">
         <v>602</v>
       </c>
@@ -51588,7 +51770,7 @@
         <v>INDIAINFO.EQ-NSE</v>
       </c>
     </row>
-    <row r="189" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B189" s="2" t="s">
         <v>603</v>
       </c>
@@ -51611,7 +51793,7 @@
         <v>INDIANB.EQ-NSE</v>
       </c>
     </row>
-    <row r="190" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B190" s="2" t="s">
         <v>604</v>
       </c>
@@ -51634,7 +51816,7 @@
         <v>INDIGO.EQ-NSE</v>
       </c>
     </row>
-    <row r="191" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B191" s="2" t="s">
         <v>605</v>
       </c>
@@ -51657,7 +51839,7 @@
         <v>INDUSINDBK.EQ-NSE</v>
       </c>
     </row>
-    <row r="192" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B192" s="2" t="s">
         <v>606</v>
       </c>
@@ -51680,7 +51862,7 @@
         <v>INFIBEAM.EQ-NSE</v>
       </c>
     </row>
-    <row r="193" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B193" s="2" t="s">
         <v>607</v>
       </c>
@@ -51709,7 +51891,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="194" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B194" s="2" t="s">
         <v>608</v>
       </c>
@@ -51735,7 +51917,7 @@
         <v>INDUSTOWER.EQ-NSE</v>
       </c>
     </row>
-    <row r="195" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B195" s="2" t="s">
         <v>609</v>
       </c>
@@ -51758,7 +51940,7 @@
         <v>INFY.EQ-NSE</v>
       </c>
     </row>
-    <row r="196" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B196" s="2" t="s">
         <v>610</v>
       </c>
@@ -51781,7 +51963,7 @@
         <v>IOB.EQ-NSE</v>
       </c>
     </row>
-    <row r="197" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B197" s="2" t="s">
         <v>611</v>
       </c>
@@ -51804,7 +51986,7 @@
         <v>IOC.EQ-NSE</v>
       </c>
     </row>
-    <row r="198" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B198" s="2" t="s">
         <v>612</v>
       </c>
@@ -51827,7 +52009,7 @@
         <v>IPCL.EQ-NSE</v>
       </c>
     </row>
-    <row r="199" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B199" s="2" t="s">
         <v>613</v>
       </c>
@@ -51850,7 +52032,7 @@
         <v>IRB.EQ-NSE</v>
       </c>
     </row>
-    <row r="200" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B200" s="2" t="s">
         <v>614</v>
       </c>
@@ -51879,7 +52061,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="201" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B201" s="2" t="s">
         <v>615</v>
       </c>
@@ -51902,7 +52084,7 @@
         <v>ITC.EQ-NSE</v>
       </c>
     </row>
-    <row r="202" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B202" s="2" t="s">
         <v>616</v>
       </c>
@@ -51925,7 +52107,7 @@
         <v>IVRCLINFRA.EQ-NSE</v>
       </c>
     </row>
-    <row r="203" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B203" s="2" t="s">
         <v>617</v>
       </c>
@@ -51948,7 +52130,7 @@
         <v>IVRPRIME.EQ-NSE</v>
       </c>
     </row>
-    <row r="204" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B204" s="2" t="s">
         <v>618</v>
       </c>
@@ -51971,7 +52153,7 @@
         <v>J_KBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="205" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B205" s="2" t="s">
         <v>619</v>
       </c>
@@ -51994,7 +52176,7 @@
         <v>JETAIRWAYS.EQ-NSE</v>
       </c>
     </row>
-    <row r="206" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B206" s="2" t="s">
         <v>620</v>
       </c>
@@ -52017,7 +52199,7 @@
         <v>JINDALSAW.EQ-NSE</v>
       </c>
     </row>
-    <row r="207" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B207" s="2" t="s">
         <v>621</v>
       </c>
@@ -52040,7 +52222,7 @@
         <v>JINDALSTEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="208" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B208" s="2" t="s">
         <v>622</v>
       </c>
@@ -52069,7 +52251,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="209" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B209" s="2" t="s">
         <v>623</v>
       </c>
@@ -52092,7 +52274,7 @@
         <v>JISLJALEQS.EQ-NSE</v>
       </c>
     </row>
-    <row r="210" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B210" s="2" t="s">
         <v>624</v>
       </c>
@@ -52115,7 +52297,7 @@
         <v>JPASSOCIAT.EQ-NSE</v>
       </c>
     </row>
-    <row r="211" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B211" s="2" t="s">
         <v>625</v>
       </c>
@@ -52138,7 +52320,7 @@
         <v>JPHYDRO.EQ-NSE</v>
       </c>
     </row>
-    <row r="212" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B212" s="2" t="s">
         <v>626</v>
       </c>
@@ -52161,7 +52343,7 @@
         <v>JPPOWER.EQ-NSE</v>
       </c>
     </row>
-    <row r="213" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B213" s="2" t="s">
         <v>627</v>
       </c>
@@ -52184,7 +52366,7 @@
         <v>JSL.EQ-NSE</v>
       </c>
     </row>
-    <row r="214" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B214" s="2" t="s">
         <v>628</v>
       </c>
@@ -52207,7 +52389,7 @@
         <v>JSTAINLESS.EQ-NSE</v>
       </c>
     </row>
-    <row r="215" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B215" s="2" t="s">
         <v>629</v>
       </c>
@@ -52230,7 +52412,7 @@
         <v>JSWENERGY.EQ-NSE</v>
       </c>
     </row>
-    <row r="216" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B216" s="2" t="s">
         <v>630</v>
       </c>
@@ -52253,7 +52435,7 @@
         <v>JSWISPAT.EQ-NSE</v>
       </c>
     </row>
-    <row r="217" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B217" s="2" t="s">
         <v>631</v>
       </c>
@@ -52276,7 +52458,7 @@
         <v>JSWSTEEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="218" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B218" s="2" t="s">
         <v>632</v>
       </c>
@@ -52299,7 +52481,7 @@
         <v>JUBLFOOD.EQ-NSE</v>
       </c>
     </row>
-    <row r="219" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B219" s="2" t="s">
         <v>633</v>
       </c>
@@ -52322,7 +52504,7 @@
         <v>JUSTDIAL.EQ-NSE</v>
       </c>
     </row>
-    <row r="220" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B220" s="2" t="s">
         <v>634</v>
       </c>
@@ -52345,7 +52527,7 @@
         <v>KAJARIACER.EQ-NSE</v>
       </c>
     </row>
-    <row r="221" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B221" s="2" t="s">
         <v>635</v>
       </c>
@@ -52368,7 +52550,7 @@
         <v>KESORAMIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="222" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B222" s="2" t="s">
         <v>636</v>
       </c>
@@ -52391,7 +52573,7 @@
         <v>KFA.EQ-NSE</v>
       </c>
     </row>
-    <row r="223" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B223" s="2" t="s">
         <v>637</v>
       </c>
@@ -52414,7 +52596,7 @@
         <v>KLGSYSTEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="224" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B224" s="2" t="s">
         <v>638</v>
       </c>
@@ -52437,7 +52619,7 @@
         <v>KOTAKBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="225" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B225" s="2" t="s">
         <v>639</v>
       </c>
@@ -52463,7 +52645,7 @@
         <v>BSOFT.EQ-NSE</v>
       </c>
     </row>
-    <row r="226" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B226" s="2" t="s">
         <v>640</v>
       </c>
@@ -52486,7 +52668,7 @@
         <v>KSCL.EQ-NSE</v>
       </c>
     </row>
-    <row r="227" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B227" s="2" t="s">
         <v>641</v>
       </c>
@@ -52509,7 +52691,7 @@
         <v>KSK.EQ-NSE</v>
       </c>
     </row>
-    <row r="228" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B228" s="2" t="s">
         <v>642</v>
       </c>
@@ -52532,7 +52714,7 @@
         <v>KSOILS.EQ-NSE</v>
       </c>
     </row>
-    <row r="229" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B229" s="2" t="s">
         <v>643</v>
       </c>
@@ -52555,7 +52737,7 @@
         <v>KTKBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="230" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B230" s="2" t="s">
         <v>644</v>
       </c>
@@ -52578,7 +52760,7 @@
         <v>L_TFH.EQ-NSE</v>
       </c>
     </row>
-    <row r="231" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B231" s="2" t="s">
         <v>645</v>
       </c>
@@ -52601,7 +52783,7 @@
         <v>LAXMIMACH.EQ-NSE</v>
       </c>
     </row>
-    <row r="232" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B232" s="2" t="s">
         <v>646</v>
       </c>
@@ -52624,7 +52806,7 @@
         <v>LICHSGFIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="233" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B233" s="2" t="s">
         <v>647</v>
       </c>
@@ -52647,7 +52829,7 @@
         <v>LITL.EQ-NSE</v>
       </c>
     </row>
-    <row r="234" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B234" s="2" t="s">
         <v>648</v>
       </c>
@@ -52670,7 +52852,7 @@
         <v>LT.EQ-NSE</v>
       </c>
     </row>
-    <row r="235" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B235" s="2" t="s">
         <v>649</v>
       </c>
@@ -52693,7 +52875,7 @@
         <v>LUPIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="236" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B236" s="2" t="s">
         <v>650</v>
       </c>
@@ -52716,7 +52898,7 @@
         <v>M_M.EQ-NSE</v>
       </c>
     </row>
-    <row r="237" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B237" s="2" t="s">
         <v>651</v>
       </c>
@@ -52739,7 +52921,7 @@
         <v>M_MFIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="238" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B238" s="2" t="s">
         <v>652</v>
       </c>
@@ -52762,7 +52944,7 @@
         <v>MAHLIFE.EQ-NSE</v>
       </c>
     </row>
-    <row r="239" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B239" s="2" t="s">
         <v>653</v>
       </c>
@@ -52785,7 +52967,7 @@
         <v>MAHSEAMLES.EQ-NSE</v>
       </c>
     </row>
-    <row r="240" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B240" s="2" t="s">
         <v>654</v>
       </c>
@@ -52808,7 +52990,7 @@
         <v>MANAPPURAM.EQ-NSE</v>
       </c>
     </row>
-    <row r="241" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B241" s="2" t="s">
         <v>655</v>
       </c>
@@ -52831,7 +53013,7 @@
         <v>MARICO.EQ-NSE</v>
       </c>
     </row>
-    <row r="242" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B242" s="2" t="s">
         <v>656</v>
       </c>
@@ -52854,7 +53036,7 @@
         <v>MARUTI.EQ-NSE</v>
       </c>
     </row>
-    <row r="243" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B243" s="2" t="s">
         <v>657</v>
       </c>
@@ -52877,7 +53059,7 @@
         <v>MATRIXLABS.EQ-NSE</v>
       </c>
     </row>
-    <row r="244" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B244" s="2" t="s">
         <v>658</v>
       </c>
@@ -52906,7 +53088,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="245" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B245" s="2" t="s">
         <v>659</v>
       </c>
@@ -52929,7 +53111,7 @@
         <v>MCDOWELL_N.EQ-NSE</v>
       </c>
     </row>
-    <row r="246" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B246" s="2" t="s">
         <v>660</v>
       </c>
@@ -52952,7 +53134,7 @@
         <v>MCLEODRUSS.EQ-NSE</v>
       </c>
     </row>
-    <row r="247" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B247" s="2" t="s">
         <v>661</v>
       </c>
@@ -52975,7 +53157,7 @@
         <v>MCX.EQ-NSE</v>
       </c>
     </row>
-    <row r="248" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B248" s="2" t="s">
         <v>662</v>
       </c>
@@ -52998,7 +53180,7 @@
         <v>MERCATOR.EQ-NSE</v>
       </c>
     </row>
-    <row r="249" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B249" s="2" t="s">
         <v>663</v>
       </c>
@@ -53021,7 +53203,7 @@
         <v>MFSL.EQ-NSE</v>
       </c>
     </row>
-    <row r="250" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B250" s="2" t="s">
         <v>664</v>
       </c>
@@ -53044,7 +53226,7 @@
         <v>MGL.EQ-NSE</v>
       </c>
     </row>
-    <row r="251" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B251" s="2" t="s">
         <v>665</v>
       </c>
@@ -53067,7 +53249,7 @@
         <v>MIC.EQ-NSE</v>
       </c>
     </row>
-    <row r="252" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B252" s="2" t="s">
         <v>666</v>
       </c>
@@ -53090,7 +53272,7 @@
         <v>MICO.EQ-NSE</v>
       </c>
     </row>
-    <row r="253" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B253" s="2" t="s">
         <v>667</v>
       </c>
@@ -53113,7 +53295,7 @@
         <v>MINDTREE.EQ-NSE</v>
       </c>
     </row>
-    <row r="254" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B254" s="2" t="s">
         <v>668</v>
       </c>
@@ -53136,7 +53318,7 @@
         <v>MLL.EQ-NSE</v>
       </c>
     </row>
-    <row r="255" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B255" s="2" t="s">
         <v>669</v>
       </c>
@@ -53159,7 +53341,7 @@
         <v>MONNETISPA.EQ-NSE</v>
       </c>
     </row>
-    <row r="256" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B256" s="2" t="s">
         <v>670</v>
       </c>
@@ -53182,7 +53364,7 @@
         <v>MOSERBAER.EQ-NSE</v>
       </c>
     </row>
-    <row r="257" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B257" s="2" t="s">
         <v>671</v>
       </c>
@@ -53208,7 +53390,7 @@
         <v>MOTHERSON.EQ-NSE</v>
       </c>
     </row>
-    <row r="258" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B258" s="2" t="s">
         <v>672</v>
       </c>
@@ -53231,7 +53413,7 @@
         <v>MPHASIS.EQ-NSE</v>
       </c>
     </row>
-    <row r="259" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B259" s="2" t="s">
         <v>673</v>
       </c>
@@ -53254,7 +53436,7 @@
         <v>MRF.EQ-NSE</v>
       </c>
     </row>
-    <row r="260" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B260" s="2" t="s">
         <v>674</v>
       </c>
@@ -53277,7 +53459,7 @@
         <v>MRPL.EQ-NSE</v>
       </c>
     </row>
-    <row r="261" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B261" s="2" t="s">
         <v>675</v>
       </c>
@@ -53300,7 +53482,7 @@
         <v>MTNL.EQ-NSE</v>
       </c>
     </row>
-    <row r="262" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B262" s="2" t="s">
         <v>676</v>
       </c>
@@ -53329,7 +53511,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="263" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B263" s="2" t="s">
         <v>677</v>
       </c>
@@ -53352,7 +53534,7 @@
         <v>MUTHOOTFIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="264" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B264" s="2" t="s">
         <v>678</v>
       </c>
@@ -53375,7 +53557,7 @@
         <v>NAGARCONST.EQ-NSE</v>
       </c>
     </row>
-    <row r="265" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B265" s="2" t="s">
         <v>679</v>
       </c>
@@ -53398,7 +53580,7 @@
         <v>NAGARFERT.EQ-NSE</v>
       </c>
     </row>
-    <row r="266" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B266" s="2" t="s">
         <v>680</v>
       </c>
@@ -53421,7 +53603,7 @@
         <v>NAGAROIL.EQ-NSE</v>
       </c>
     </row>
-    <row r="267" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B267" s="2" t="s">
         <v>681</v>
       </c>
@@ -53444,7 +53626,7 @@
         <v>NATIONALUM.EQ-NSE</v>
       </c>
     </row>
-    <row r="268" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B268" s="2" t="s">
         <v>682</v>
       </c>
@@ -53467,7 +53649,7 @@
         <v>NAUKRI.EQ-NSE</v>
       </c>
     </row>
-    <row r="269" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B269" s="2" t="s">
         <v>683</v>
       </c>
@@ -53490,7 +53672,7 @@
         <v>NBCC.EQ-NSE</v>
       </c>
     </row>
-    <row r="270" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B270" s="2" t="s">
         <v>684</v>
       </c>
@@ -53513,7 +53695,7 @@
         <v>NBVENTURES.EQ-NSE</v>
       </c>
     </row>
-    <row r="271" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B271" s="2" t="s">
         <v>685</v>
       </c>
@@ -53536,7 +53718,7 @@
         <v>NCC.EQ-NSE</v>
       </c>
     </row>
-    <row r="272" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B272" s="2" t="s">
         <v>686</v>
       </c>
@@ -53559,7 +53741,7 @@
         <v>NDTV.EQ-NSE</v>
       </c>
     </row>
-    <row r="273" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B273" s="2" t="s">
         <v>687</v>
       </c>
@@ -53582,7 +53764,7 @@
         <v>NESTLEIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="274" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B274" s="2" t="s">
         <v>688</v>
       </c>
@@ -53605,7 +53787,7 @@
         <v>NETWORK18.EQ-NSE</v>
       </c>
     </row>
-    <row r="275" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B275" s="2" t="s">
         <v>689</v>
       </c>
@@ -53634,7 +53816,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="276" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B276" s="2" t="s">
         <v>690</v>
       </c>
@@ -53657,7 +53839,7 @@
         <v>NHPC.EQ-NSE</v>
       </c>
     </row>
-    <row r="277" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B277" s="2" t="s">
         <v>691</v>
       </c>
@@ -53680,7 +53862,7 @@
         <v>NICOLASPIR.EQ-NSE</v>
       </c>
     </row>
-    <row r="278" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B278" s="2" t="s">
         <v>692</v>
       </c>
@@ -53703,7 +53885,7 @@
         <v>NIITLTD.EQ-NSE</v>
       </c>
     </row>
-    <row r="279" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B279" s="2" t="s">
         <v>693</v>
       </c>
@@ -53729,7 +53911,7 @@
         <v>COFORGE.EQ-NSE</v>
       </c>
     </row>
-    <row r="280" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B280" s="2" t="s">
         <v>694</v>
       </c>
@@ -53752,7 +53934,7 @@
         <v>NMDC.EQ-NSE</v>
       </c>
     </row>
-    <row r="281" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B281" s="2" t="s">
         <v>695</v>
       </c>
@@ -53775,7 +53957,7 @@
         <v>NOIDATOLL.EQ-NSE</v>
       </c>
     </row>
-    <row r="282" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B282" s="2" t="s">
         <v>696</v>
       </c>
@@ -53798,7 +53980,7 @@
         <v>NTPC.EQ-NSE</v>
       </c>
     </row>
-    <row r="283" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B283" s="2" t="s">
         <v>697</v>
       </c>
@@ -53821,7 +54003,7 @@
         <v>NUCLEUS.EQ-NSE</v>
       </c>
     </row>
-    <row r="284" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B284" s="2" t="s">
         <v>698</v>
       </c>
@@ -53844,7 +54026,7 @@
         <v>OFSS.EQ-NSE</v>
       </c>
     </row>
-    <row r="285" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B285" s="2" t="s">
         <v>699</v>
       </c>
@@ -53867,7 +54049,7 @@
         <v>OIL.EQ-NSE</v>
       </c>
     </row>
-    <row r="286" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B286" s="2" t="s">
         <v>700</v>
       </c>
@@ -53890,7 +54072,7 @@
         <v>OMAXE.EQ-NSE</v>
       </c>
     </row>
-    <row r="287" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B287" s="2" t="s">
         <v>701</v>
       </c>
@@ -53913,7 +54095,7 @@
         <v>ONGC.EQ-NSE</v>
       </c>
     </row>
-    <row r="288" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B288" s="2" t="s">
         <v>702</v>
       </c>
@@ -53936,7 +54118,7 @@
         <v>ONMOBILE.EQ-NSE</v>
       </c>
     </row>
-    <row r="289" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B289" s="2" t="s">
         <v>703</v>
       </c>
@@ -53959,7 +54141,7 @@
         <v>OPTOCIRCUI.EQ-NSE</v>
       </c>
     </row>
-    <row r="290" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B290" s="2" t="s">
         <v>704</v>
       </c>
@@ -53982,7 +54164,7 @@
         <v>ORBITCORP.EQ-NSE</v>
       </c>
     </row>
-    <row r="291" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B291" s="2" t="s">
         <v>705</v>
       </c>
@@ -54011,7 +54193,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="292" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B292" s="2" t="s">
         <v>706</v>
       </c>
@@ -54034,7 +54216,7 @@
         <v>ORIENTBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="293" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B293" s="2" t="s">
         <v>707</v>
       </c>
@@ -54057,7 +54239,7 @@
         <v>PAGEIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="294" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B294" s="2" t="s">
         <v>708</v>
       </c>
@@ -54086,7 +54268,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="295" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B295" s="2" t="s">
         <v>709</v>
       </c>
@@ -54109,7 +54291,7 @@
         <v>PARSVNATH.EQ-NSE</v>
       </c>
     </row>
-    <row r="296" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B296" s="2" t="s">
         <v>710</v>
       </c>
@@ -54132,7 +54314,7 @@
         <v>PATELENG.EQ-NSE</v>
       </c>
     </row>
-    <row r="297" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B297" s="2" t="s">
         <v>711</v>
       </c>
@@ -54155,7 +54337,7 @@
         <v>PATNI.EQ-NSE</v>
       </c>
     </row>
-    <row r="298" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B298" s="2" t="s">
         <v>712</v>
       </c>
@@ -54178,7 +54360,7 @@
         <v>PCJEWELLER.EQ-NSE</v>
       </c>
     </row>
-    <row r="299" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B299" s="2" t="s">
         <v>713</v>
       </c>
@@ -54201,7 +54383,7 @@
         <v>PEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="300" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B300" s="2" t="s">
         <v>714</v>
       </c>
@@ -54224,7 +54406,7 @@
         <v>PENINLAND.EQ-NSE</v>
       </c>
     </row>
-    <row r="301" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B301" s="2" t="s">
         <v>715</v>
       </c>
@@ -54247,7 +54429,7 @@
         <v>PETRONET.EQ-NSE</v>
       </c>
     </row>
-    <row r="302" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B302" s="2" t="s">
         <v>716</v>
       </c>
@@ -54270,7 +54452,7 @@
         <v>PFC.EQ-NSE</v>
       </c>
     </row>
-    <row r="303" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B303" s="2" t="s">
         <v>717</v>
       </c>
@@ -54293,7 +54475,7 @@
         <v>PIDILITIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="304" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B304" s="2" t="s">
         <v>718</v>
       </c>
@@ -54322,7 +54504,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="305" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B305" s="2" t="s">
         <v>719</v>
       </c>
@@ -54345,7 +54527,7 @@
         <v>PNB.EQ-NSE</v>
       </c>
     </row>
-    <row r="306" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B306" s="2" t="s">
         <v>720</v>
       </c>
@@ -54368,7 +54550,7 @@
         <v>POLARIS.EQ-NSE</v>
       </c>
     </row>
-    <row r="307" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B307" s="2" t="s">
         <v>721</v>
       </c>
@@ -54391,7 +54573,7 @@
         <v>POWERGRID.EQ-NSE</v>
       </c>
     </row>
-    <row r="308" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B308" s="2" t="s">
         <v>722</v>
       </c>
@@ -54414,7 +54596,7 @@
         <v>PRAJIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="309" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B309" s="2" t="s">
         <v>723</v>
       </c>
@@ -54437,7 +54619,7 @@
         <v>PRISMCEM.EQ-NSE</v>
       </c>
     </row>
-    <row r="310" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B310" s="2" t="s">
         <v>724</v>
       </c>
@@ -54460,7 +54642,7 @@
         <v>PTC.EQ-NSE</v>
       </c>
     </row>
-    <row r="311" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B311" s="2" t="s">
         <v>725</v>
       </c>
@@ -54483,7 +54665,7 @@
         <v>PUNJLLOYD.EQ-NSE</v>
       </c>
     </row>
-    <row r="312" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B312" s="2" t="s">
         <v>726</v>
       </c>
@@ -54506,7 +54688,7 @@
         <v>PURVA.EQ-NSE</v>
       </c>
     </row>
-    <row r="313" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B313" s="2" t="s">
         <v>727</v>
       </c>
@@ -54529,7 +54711,7 @@
         <v>PVR.EQ-NSE</v>
       </c>
     </row>
-    <row r="314" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B314" s="2" t="s">
         <v>728</v>
       </c>
@@ -54552,7 +54734,7 @@
         <v>RAJESHEXPO.EQ-NSE</v>
       </c>
     </row>
-    <row r="315" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B315" s="2" t="s">
         <v>729</v>
       </c>
@@ -54575,7 +54757,7 @@
         <v>RAMCOCEM.EQ-NSE</v>
       </c>
     </row>
-    <row r="316" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B316" s="2" t="s">
         <v>730</v>
       </c>
@@ -54598,7 +54780,7 @@
         <v>RANBAXY.EQ-NSE</v>
       </c>
     </row>
-    <row r="317" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B317" s="2" t="s">
         <v>731</v>
       </c>
@@ -54621,7 +54803,7 @@
         <v>RAYMOND.EQ-NSE</v>
       </c>
     </row>
-    <row r="318" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B318" s="2" t="s">
         <v>732</v>
       </c>
@@ -54644,7 +54826,7 @@
         <v>RBLBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="319" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B319" s="2" t="s">
         <v>733</v>
       </c>
@@ -54667,7 +54849,7 @@
         <v>RCOM.EQ-NSE</v>
       </c>
     </row>
-    <row r="320" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B320" s="2" t="s">
         <v>734</v>
       </c>
@@ -54690,7 +54872,7 @@
         <v>RDEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="321" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B321" s="2" t="s">
         <v>735</v>
       </c>
@@ -54713,7 +54895,7 @@
         <v>RECLTD.EQ-NSE</v>
       </c>
     </row>
-    <row r="322" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B322" s="2" t="s">
         <v>736</v>
       </c>
@@ -54736,7 +54918,7 @@
         <v>REDINGTON.EQ-NSE</v>
       </c>
     </row>
-    <row r="323" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B323" s="2" t="s">
         <v>737</v>
       </c>
@@ -54765,7 +54947,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="324" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B324" s="2" t="s">
         <v>738</v>
       </c>
@@ -54788,7 +54970,7 @@
         <v>RELCAPITAL.EQ-NSE</v>
       </c>
     </row>
-    <row r="325" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B325" s="2" t="s">
         <v>739</v>
       </c>
@@ -54811,7 +54993,7 @@
         <v>RELIANCE.EQ-NSE</v>
       </c>
     </row>
-    <row r="326" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B326" s="2" t="s">
         <v>740</v>
       </c>
@@ -54834,7 +55016,7 @@
         <v>RELINFRA.EQ-NSE</v>
       </c>
     </row>
-    <row r="327" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B327" s="2" t="s">
         <v>741</v>
       </c>
@@ -54857,7 +55039,7 @@
         <v>RELMEDIA.EQ-NSE</v>
       </c>
     </row>
-    <row r="328" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B328" s="2" t="s">
         <v>742</v>
       </c>
@@ -54880,7 +55062,7 @@
         <v>RENUKA.EQ-NSE</v>
       </c>
     </row>
-    <row r="329" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B329" s="2" t="s">
         <v>743</v>
       </c>
@@ -54903,7 +55085,7 @@
         <v>REPCOHOME.EQ-NSE</v>
       </c>
     </row>
-    <row r="330" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B330" s="2" t="s">
         <v>744</v>
       </c>
@@ -54926,7 +55108,7 @@
         <v>RIIL.EQ-NSE</v>
       </c>
     </row>
-    <row r="331" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B331" s="2" t="s">
         <v>745</v>
       </c>
@@ -54949,7 +55131,7 @@
         <v>RNAVAL.EQ-NSE</v>
       </c>
     </row>
-    <row r="332" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B332" s="2" t="s">
         <v>746</v>
       </c>
@@ -54972,7 +55154,7 @@
         <v>RNRL.EQ-NSE</v>
       </c>
     </row>
-    <row r="333" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B333" s="2" t="s">
         <v>747</v>
       </c>
@@ -54995,7 +55177,7 @@
         <v>ROLTA.EQ-NSE</v>
       </c>
     </row>
-    <row r="334" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B334" s="2" t="s">
         <v>748</v>
       </c>
@@ -55018,7 +55200,7 @@
         <v>RPL.EQ-NSE</v>
       </c>
     </row>
-    <row r="335" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B335" s="2" t="s">
         <v>749</v>
       </c>
@@ -55041,7 +55223,7 @@
         <v>RPOWER.EQ-NSE</v>
       </c>
     </row>
-    <row r="336" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B336" s="2" t="s">
         <v>750</v>
       </c>
@@ -55064,7 +55246,7 @@
         <v>RUCHISOYA.EQ-NSE</v>
       </c>
     </row>
-    <row r="337" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B337" s="2" t="s">
         <v>751</v>
       </c>
@@ -55087,7 +55269,7 @@
         <v>SAIL.EQ-NSE</v>
       </c>
     </row>
-    <row r="338" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B338" s="2" t="s">
         <v>752</v>
       </c>
@@ -55110,7 +55292,7 @@
         <v>SAMRUDDHI.EQ-NSE</v>
       </c>
     </row>
-    <row r="339" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B339" s="2" t="s">
         <v>753</v>
       </c>
@@ -55133,7 +55315,7 @@
         <v>SASKEN.EQ-NSE</v>
       </c>
     </row>
-    <row r="340" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B340" s="2" t="s">
         <v>754</v>
       </c>
@@ -55156,7 +55338,7 @@
         <v>SATYAMCOMP.EQ-NSE</v>
       </c>
     </row>
-    <row r="341" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B341" s="2" t="s">
         <v>755</v>
       </c>
@@ -55179,7 +55361,7 @@
         <v>SBIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="342" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B342" s="2" t="s">
         <v>756</v>
       </c>
@@ -55202,7 +55384,7 @@
         <v>SCI.EQ-NSE</v>
       </c>
     </row>
-    <row r="343" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B343" s="2" t="s">
         <v>757</v>
       </c>
@@ -55231,7 +55413,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="344" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B344" s="2" t="s">
         <v>758</v>
       </c>
@@ -55254,7 +55436,7 @@
         <v>SHREECEM.EQ-NSE</v>
       </c>
     </row>
-    <row r="345" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B345" s="2" t="s">
         <v>759</v>
       </c>
@@ -55277,7 +55459,7 @@
         <v>SIEMENS.EQ-NSE</v>
       </c>
     </row>
-    <row r="346" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B346" s="2" t="s">
         <v>760</v>
       </c>
@@ -55300,7 +55482,7 @@
         <v>SINTEX.EQ-NSE</v>
       </c>
     </row>
-    <row r="347" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B347" s="2" t="s">
         <v>761</v>
       </c>
@@ -55329,7 +55511,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="348" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B348" s="2" t="s">
         <v>762</v>
       </c>
@@ -55352,7 +55534,7 @@
         <v>SKUMARSYNF.EQ-NSE</v>
       </c>
     </row>
-    <row r="349" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B349" s="2" t="s">
         <v>763</v>
       </c>
@@ -55375,7 +55557,7 @@
         <v>SOBHA.EQ-NSE</v>
       </c>
     </row>
-    <row r="350" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B350" s="2" t="s">
         <v>764</v>
       </c>
@@ -55398,7 +55580,7 @@
         <v>SOUTHBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="351" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B351" s="2" t="s">
         <v>765</v>
       </c>
@@ -55421,7 +55603,7 @@
         <v>SREINFRA.EQ-NSE</v>
       </c>
     </row>
-    <row r="352" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B352" s="2" t="s">
         <v>766</v>
       </c>
@@ -55444,7 +55626,7 @@
         <v>SREINTFIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="353" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B353" s="2" t="s">
         <v>767</v>
       </c>
@@ -55467,7 +55649,7 @@
         <v>SRF.EQ-NSE</v>
       </c>
     </row>
-    <row r="354" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B354" s="2" t="s">
         <v>768</v>
       </c>
@@ -55490,7 +55672,7 @@
         <v>SRTRANSFIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="355" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B355" s="2" t="s">
         <v>769</v>
       </c>
@@ -55519,7 +55701,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="356" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B356" s="2" t="s">
         <v>770</v>
       </c>
@@ -55542,7 +55724,7 @@
         <v>STAR.EQ-NSE</v>
       </c>
     </row>
-    <row r="357" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="357" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B357" s="2" t="s">
         <v>771</v>
       </c>
@@ -55565,7 +55747,7 @@
         <v>STER.EQ-NSE</v>
       </c>
     </row>
-    <row r="358" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="358" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B358" s="2" t="s">
         <v>772</v>
       </c>
@@ -55588,7 +55770,7 @@
         <v>STERLINBIO.EQ-NSE</v>
       </c>
     </row>
-    <row r="359" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="359" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B359" s="2" t="s">
         <v>773</v>
       </c>
@@ -55611,7 +55793,7 @@
         <v>STROPTICAL.EQ-NSE</v>
       </c>
     </row>
-    <row r="360" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="360" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B360" s="2" t="s">
         <v>774</v>
       </c>
@@ -55634,7 +55816,7 @@
         <v>STRTECH.EQ-NSE</v>
       </c>
     </row>
-    <row r="361" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="361" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B361" s="2" t="s">
         <v>775</v>
       </c>
@@ -55657,7 +55839,7 @@
         <v>SUNPHARMA.EQ-NSE</v>
       </c>
     </row>
-    <row r="362" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="362" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B362" s="2" t="s">
         <v>776</v>
       </c>
@@ -55680,7 +55862,7 @@
         <v>SUNTV.EQ-NSE</v>
       </c>
     </row>
-    <row r="363" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="363" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B363" s="2" t="s">
         <v>777</v>
       </c>
@@ -55703,7 +55885,7 @@
         <v>SUZLON.EQ-NSE</v>
       </c>
     </row>
-    <row r="364" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="364" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B364" s="2" t="s">
         <v>778</v>
       </c>
@@ -55726,7 +55908,7 @@
         <v>SYNDIBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="365" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="365" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B365" s="2" t="s">
         <v>779</v>
       </c>
@@ -55749,7 +55931,7 @@
         <v>TATACHEM.EQ-NSE</v>
       </c>
     </row>
-    <row r="366" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="366" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B366" s="2" t="s">
         <v>780</v>
       </c>
@@ -55772,7 +55954,7 @@
         <v>TATACOFFEE.EQ-NSE</v>
       </c>
     </row>
-    <row r="367" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="367" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B367" s="2" t="s">
         <v>781</v>
       </c>
@@ -55795,7 +55977,7 @@
         <v>TATACOMM.EQ-NSE</v>
       </c>
     </row>
-    <row r="368" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="368" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B368" s="2" t="s">
         <v>782</v>
       </c>
@@ -55818,7 +56000,7 @@
         <v>TATAELXSI.EQ-NSE</v>
       </c>
     </row>
-    <row r="369" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="369" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B369" s="2" t="s">
         <v>783</v>
       </c>
@@ -55847,7 +56029,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="370" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="370" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B370" s="2" t="s">
         <v>784</v>
       </c>
@@ -55870,7 +56052,7 @@
         <v>TATAMOTORS.EQ-NSE</v>
       </c>
     </row>
-    <row r="371" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="371" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B371" s="2" t="s">
         <v>785</v>
       </c>
@@ -55893,7 +56075,7 @@
         <v>TATAMTRDVR.EQ-NSE</v>
       </c>
     </row>
-    <row r="372" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="372" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B372" s="2" t="s">
         <v>786</v>
       </c>
@@ -55916,7 +56098,7 @@
         <v>TATAPOWER.EQ-NSE</v>
       </c>
     </row>
-    <row r="373" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="373" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B373" s="2" t="s">
         <v>787</v>
       </c>
@@ -55939,7 +56121,7 @@
         <v>TATASTEEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="374" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="374" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B374" s="2" t="s">
         <v>788</v>
       </c>
@@ -55968,7 +56150,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="375" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="375" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B375" s="2" t="s">
         <v>789</v>
       </c>
@@ -55991,7 +56173,7 @@
         <v>TCS.EQ-NSE</v>
       </c>
     </row>
-    <row r="376" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="376" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B376" s="2" t="s">
         <v>790</v>
       </c>
@@ -56014,7 +56196,7 @@
         <v>TECHM.EQ-NSE</v>
       </c>
     </row>
-    <row r="377" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="377" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B377" s="2" t="s">
         <v>791</v>
       </c>
@@ -56037,7 +56219,7 @@
         <v>THERMAX.EQ-NSE</v>
       </c>
     </row>
-    <row r="378" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="378" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B378" s="2" t="s">
         <v>792</v>
       </c>
@@ -56060,7 +56242,7 @@
         <v>TITAN.EQ-NSE</v>
       </c>
     </row>
-    <row r="379" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="379" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B379" s="2" t="s">
         <v>793</v>
       </c>
@@ -56083,7 +56265,7 @@
         <v>TORNTPHARM.EQ-NSE</v>
       </c>
     </row>
-    <row r="380" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="380" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B380" s="2" t="s">
         <v>794</v>
       </c>
@@ -56106,7 +56288,7 @@
         <v>TORNTPOWER.EQ-NSE</v>
       </c>
     </row>
-    <row r="381" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="381" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B381" s="2" t="s">
         <v>795</v>
       </c>
@@ -56129,7 +56311,7 @@
         <v>TRIVENI.EQ-NSE</v>
       </c>
     </row>
-    <row r="382" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="382" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B382" s="2" t="s">
         <v>796</v>
       </c>
@@ -56152,7 +56334,7 @@
         <v>TTKPRESTIG.EQ-NSE</v>
       </c>
     </row>
-    <row r="383" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="383" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B383" s="2" t="s">
         <v>797</v>
       </c>
@@ -56175,7 +56357,7 @@
         <v>TTML.EQ-NSE</v>
       </c>
     </row>
-    <row r="384" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="384" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B384" s="2" t="s">
         <v>798</v>
       </c>
@@ -56198,7 +56380,7 @@
         <v>TULIP.EQ-NSE</v>
       </c>
     </row>
-    <row r="385" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="385" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B385" s="2" t="s">
         <v>799</v>
       </c>
@@ -56221,7 +56403,7 @@
         <v>TV_18.EQ-NSE</v>
       </c>
     </row>
-    <row r="386" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="386" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B386" s="2" t="s">
         <v>800</v>
       </c>
@@ -56244,19 +56426,19 @@
         <v>TV18BRDCST.EQ-NSE</v>
       </c>
     </row>
-    <row r="387" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="387" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B387" s="2" t="s">
         <v>801</v>
       </c>
       <c r="E387" t="str">
-        <f t="shared" ref="E387:E427" si="18">LEFT(B387,LEN(B387)-8)</f>
+        <f t="shared" ref="E387:E425" si="18">LEFT(B387,LEN(B387)-8)</f>
         <v>CAPF</v>
       </c>
       <c r="G387" t="s">
         <v>384</v>
       </c>
       <c r="I387" t="str">
-        <f t="shared" ref="I387:I427" si="19">G387&amp;".EQ-NSE,"</f>
+        <f t="shared" ref="I387:I428" si="19">G387&amp;".EQ-NSE,"</f>
         <v>CAPF.EQ-NSE,</v>
       </c>
       <c r="L387" t="s">
@@ -56267,7 +56449,7 @@
         <v>TVSMOTOR.EQ-NSE</v>
       </c>
     </row>
-    <row r="388" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="388" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B388" s="2" t="s">
         <v>802</v>
       </c>
@@ -56290,7 +56472,7 @@
         <v>UBL.EQ-NSE</v>
       </c>
     </row>
-    <row r="389" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="389" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B389" s="2" t="s">
         <v>803</v>
       </c>
@@ -56313,7 +56495,7 @@
         <v>UCOBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="390" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="390" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B390" s="2" t="s">
         <v>804</v>
       </c>
@@ -56336,7 +56518,7 @@
         <v>UJJIVAN.EQ-NSE</v>
       </c>
     </row>
-    <row r="391" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="391" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B391" s="2" t="s">
         <v>805</v>
       </c>
@@ -56359,7 +56541,7 @@
         <v>ULTRACEMCO.EQ-NSE</v>
       </c>
     </row>
-    <row r="392" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="392" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B392" s="2" t="s">
         <v>806</v>
       </c>
@@ -56382,7 +56564,7 @@
         <v>UNIONBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="393" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="393" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B393" s="2" t="s">
         <v>807</v>
       </c>
@@ -56411,7 +56593,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="394" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="394" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B394" s="2" t="s">
         <v>808</v>
       </c>
@@ -56434,7 +56616,7 @@
         <v>UNITECH.EQ-NSE</v>
       </c>
     </row>
-    <row r="395" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="395" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B395" s="2" t="s">
         <v>809</v>
       </c>
@@ -56457,7 +56639,7 @@
         <v>UPL.EQ-NSE</v>
       </c>
     </row>
-    <row r="396" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="396" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B396" s="2" t="s">
         <v>810</v>
       </c>
@@ -56486,7 +56668,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="397" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="397" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B397" s="2" t="s">
         <v>811</v>
       </c>
@@ -56509,7 +56691,7 @@
         <v>UTVSOF.EQ-NSE</v>
       </c>
     </row>
-    <row r="398" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="398" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B398" s="2" t="s">
         <v>812</v>
       </c>
@@ -56532,7 +56714,7 @@
         <v>VEDL.EQ-NSE</v>
       </c>
     </row>
-    <row r="399" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="399" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B399" s="2" t="s">
         <v>813</v>
       </c>
@@ -56555,7 +56737,7 @@
         <v>VGUARD.EQ-NSE</v>
       </c>
     </row>
-    <row r="400" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="400" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B400" s="2" t="s">
         <v>814</v>
       </c>
@@ -56578,7 +56760,7 @@
         <v>VIDEOIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="401" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="401" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B401" s="2" t="s">
         <v>815</v>
       </c>
@@ -56601,7 +56783,7 @@
         <v>VIJAYABANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="402" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="402" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B402" s="2" t="s">
         <v>816</v>
       </c>
@@ -56624,7 +56806,7 @@
         <v>VIPIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="403" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="403" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B403" s="2" t="s">
         <v>817</v>
       </c>
@@ -56647,7 +56829,7 @@
         <v>VOLTAMP.EQ-NSE</v>
       </c>
     </row>
-    <row r="404" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="404" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B404" s="2" t="s">
         <v>818</v>
       </c>
@@ -56670,7 +56852,7 @@
         <v>VOLTAS.EQ-NSE</v>
       </c>
     </row>
-    <row r="405" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="405" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B405" s="2" t="s">
         <v>819</v>
       </c>
@@ -56693,7 +56875,7 @@
         <v>VSNL.EQ-NSE</v>
       </c>
     </row>
-    <row r="406" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="406" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B406" s="2" t="s">
         <v>820</v>
       </c>
@@ -56716,7 +56898,7 @@
         <v>WALCHANNAG.EQ-NSE</v>
       </c>
     </row>
-    <row r="407" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="407" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B407" s="2" t="s">
         <v>821</v>
       </c>
@@ -56739,7 +56921,7 @@
         <v>WELCORP.EQ-NSE</v>
       </c>
     </row>
-    <row r="408" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="408" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B408" s="2" t="s">
         <v>822</v>
       </c>
@@ -56762,7 +56944,7 @@
         <v>WELGUJ.EQ-NSE</v>
       </c>
     </row>
-    <row r="409" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="409" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B409" s="2" t="s">
         <v>823</v>
       </c>
@@ -56785,7 +56967,7 @@
         <v>WIPRO.EQ-NSE</v>
       </c>
     </row>
-    <row r="410" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="410" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B410" s="2" t="s">
         <v>824</v>
       </c>
@@ -56808,7 +56990,7 @@
         <v>WOCKPHARMA.EQ-NSE</v>
       </c>
     </row>
-    <row r="411" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="411" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B411" s="2" t="s">
         <v>825</v>
       </c>
@@ -56837,7 +57019,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="412" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="412" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B412" s="2" t="s">
         <v>826</v>
       </c>
@@ -56860,7 +57042,7 @@
         <v>YESBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="413" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="413" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B413" s="2" t="s">
         <v>827</v>
       </c>
@@ -56883,7 +57065,7 @@
         <v>ZEEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="414" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="414" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B414" s="2" t="s">
         <v>828</v>
       </c>
@@ -56906,7 +57088,7 @@
         <v>ZEETELE.EQ-NSE</v>
       </c>
     </row>
-    <row r="415" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="415" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B415" s="2" t="s">
         <v>829</v>
       </c>
@@ -56929,7 +57111,7 @@
         <v>HDFCLIFE.EQ-NSE</v>
       </c>
     </row>
-    <row r="416" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="416" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B416" s="2" t="s">
         <v>1356</v>
       </c>
@@ -56952,7 +57134,7 @@
         <v>BANDHANBNK.EQ-NSE</v>
       </c>
     </row>
-    <row r="417" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="417" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B417" s="2" t="s">
         <v>1363</v>
       </c>
@@ -56975,7 +57157,7 @@
         <v>GODREJPROP.EQ-NSE</v>
       </c>
     </row>
-    <row r="418" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="418" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B418" s="2" t="s">
         <v>1364</v>
       </c>
@@ -56998,7 +57180,7 @@
         <v>SBILIFE.EQ-NSE</v>
       </c>
     </row>
-    <row r="419" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="419" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B419" s="2" t="s">
         <v>1365</v>
       </c>
@@ -57021,7 +57203,7 @@
         <v>TATACONSUM.EQ-NSE</v>
       </c>
     </row>
-    <row r="420" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="420" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B420" s="2" t="s">
         <v>1366</v>
       </c>
@@ -57044,7 +57226,7 @@
         <v>ICICIGI.EQ-NSE</v>
       </c>
     </row>
-    <row r="421" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="421" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B421" s="2" t="s">
         <v>1371</v>
       </c>
@@ -57070,7 +57252,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="422" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="422" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B422" s="2" t="s">
         <v>1375</v>
       </c>
@@ -57093,7 +57275,7 @@
         <v>LALPATHLAB.EQ-NSE</v>
       </c>
     </row>
-    <row r="423" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="423" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B423" s="2" t="s">
         <v>1378</v>
       </c>
@@ -57116,7 +57298,7 @@
         <v>AARTIIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="424" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="424" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B424" s="2" t="s">
         <v>1380</v>
       </c>
@@ -57139,7 +57321,7 @@
         <v>ALKEM.EQ-NSE</v>
       </c>
     </row>
-    <row r="425" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="425" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B425" s="2" t="s">
         <v>1383</v>
       </c>
@@ -57162,12 +57344,12 @@
         <v>APLLTD.EQ-NSE</v>
       </c>
     </row>
-    <row r="426" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="426" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B426" s="2" t="s">
         <v>1387</v>
       </c>
       <c r="E426" t="str">
-        <f t="shared" si="18"/>
+        <f>LEFT(B426,LEN(B426)-8)</f>
         <v>ZYDUSLIFE</v>
       </c>
       <c r="G426" t="s">
@@ -57185,8 +57367,21 @@
         <v>AUBANK.EQ-NSE</v>
       </c>
     </row>
-    <row r="427" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B427" s="2"/>
+    <row r="427" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B427" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E427" t="str">
+        <f>LEFT(B427,LEN(B427)-8)</f>
+        <v>SHRIRAMFI</v>
+      </c>
+      <c r="G427" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I427" t="str">
+        <f t="shared" si="19"/>
+        <v>SHRIRAMFIN.EQ-NSE,</v>
+      </c>
       <c r="L427" t="s">
         <v>1311</v>
       </c>
@@ -57195,7 +57390,21 @@
         <v>CUB.EQ-NSE</v>
       </c>
     </row>
-    <row r="428" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="428" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B428" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E428" t="str">
+        <f>LEFT(B428,LEN(B428)-8)</f>
+        <v>LTI</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I428" t="str">
+        <f t="shared" si="19"/>
+        <v>LTIM.EQ-NSE,</v>
+      </c>
       <c r="L428" t="s">
         <v>1312</v>
       </c>
@@ -57204,7 +57413,7 @@
         <v>DEEPAKNTR.EQ-NSE</v>
       </c>
     </row>
-    <row r="429" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="429" spans="2:15" x14ac:dyDescent="0.45">
       <c r="L429" t="s">
         <v>994</v>
       </c>
@@ -57213,7 +57422,7 @@
         <v>GRANULES.EQ-NSE</v>
       </c>
     </row>
-    <row r="430" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="430" spans="2:15" x14ac:dyDescent="0.45">
       <c r="L430" t="s">
         <v>1313</v>
       </c>
@@ -57222,7 +57431,7 @@
         <v>GUJGASLTD.EQ-NSE</v>
       </c>
     </row>
-    <row r="431" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="431" spans="2:15" x14ac:dyDescent="0.45">
       <c r="L431" t="s">
         <v>1314</v>
       </c>
@@ -57231,7 +57440,7 @@
         <v>IRCTC.EQ-NSE</v>
       </c>
     </row>
-    <row r="432" spans="2:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="432" spans="2:15" x14ac:dyDescent="0.45">
       <c r="L432" t="s">
         <v>1315</v>
       </c>
@@ -57240,7 +57449,7 @@
         <v>LTI.EQ-NSE</v>
       </c>
     </row>
-    <row r="433" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="433" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L433" t="s">
         <v>1316</v>
       </c>
@@ -57249,7 +57458,7 @@
         <v>LTTS.EQ-NSE</v>
       </c>
     </row>
-    <row r="434" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="434" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L434" t="s">
         <v>1110</v>
       </c>
@@ -57258,7 +57467,7 @@
         <v>MPHASIS.EQ-NSE</v>
       </c>
     </row>
-    <row r="435" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="435" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L435" t="s">
         <v>1321</v>
       </c>
@@ -57267,7 +57476,7 @@
         <v>NAM_INDIA.EQ-NSE</v>
       </c>
     </row>
-    <row r="436" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="436" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L436" t="s">
         <v>1295</v>
       </c>
@@ -57276,7 +57485,7 @@
         <v>NAVINFLUOR.EQ-NSE</v>
       </c>
     </row>
-    <row r="437" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="437" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L437" t="s">
         <v>1317</v>
       </c>
@@ -57285,7 +57494,7 @@
         <v>PFIZER.EQ-NSE</v>
       </c>
     </row>
-    <row r="438" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="438" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L438" t="s">
         <v>1318</v>
       </c>
@@ -57294,7 +57503,7 @@
         <v>PIIND.EQ-NSE</v>
       </c>
     </row>
-    <row r="439" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="439" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L439" t="s">
         <v>1319</v>
       </c>
@@ -57303,7 +57512,7 @@
         <v>TRENT.EQ-NSE</v>
       </c>
     </row>
-    <row r="440" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="440" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L440" t="s">
         <v>1325</v>
       </c>
@@ -57312,7 +57521,7 @@
         <v>ABFRL.EQ-NSE</v>
       </c>
     </row>
-    <row r="441" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="441" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L441" t="s">
         <v>1326</v>
       </c>
@@ -57321,7 +57530,7 @@
         <v>COROMANDEL.EQ-NSE</v>
       </c>
     </row>
-    <row r="442" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="442" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L442" t="s">
         <v>1327</v>
       </c>
@@ -57330,7 +57539,7 @@
         <v>METROPOLIS.EQ-NSE</v>
       </c>
     </row>
-    <row r="443" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="443" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L443" t="s">
         <v>1328</v>
       </c>
@@ -57339,7 +57548,7 @@
         <v>ASTRAL.EQ-NSE</v>
       </c>
     </row>
-    <row r="444" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="444" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L444" s="4" t="s">
         <v>1337</v>
       </c>
@@ -57348,7 +57557,7 @@
         <v>HAL.EQ-NSE</v>
       </c>
     </row>
-    <row r="445" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="445" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L445" s="4" t="s">
         <v>1338</v>
       </c>
@@ -57357,7 +57566,7 @@
         <v>IEX.EQ-NSE</v>
       </c>
     </row>
-    <row r="446" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="446" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L446" s="4" t="s">
         <v>1339</v>
       </c>
@@ -57366,7 +57575,7 @@
         <v>IPCALAB.EQ-NSE</v>
       </c>
     </row>
-    <row r="447" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="447" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L447" s="4" t="s">
         <v>1340</v>
       </c>
@@ -57375,7 +57584,7 @@
         <v>POLYCAB.EQ-NSE</v>
       </c>
     </row>
-    <row r="448" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="448" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L448" s="4" t="s">
         <v>1341</v>
       </c>
@@ -57384,7 +57593,7 @@
         <v>DIXON.EQ-NSE</v>
       </c>
     </row>
-    <row r="449" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="449" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L449" s="4" t="s">
         <v>1342</v>
       </c>
@@ -57393,7 +57602,7 @@
         <v>INDIAMART.EQ-NSE</v>
       </c>
     </row>
-    <row r="450" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="450" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L450" s="4" t="s">
         <v>1343</v>
       </c>
@@ -57402,7 +57611,7 @@
         <v>SYNGENE.EQ-NSE</v>
       </c>
     </row>
-    <row r="451" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="451" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L451" t="s">
         <v>1350</v>
       </c>
@@ -57411,7 +57620,7 @@
         <v>ABBOTINDIA.EQ-NSE</v>
       </c>
     </row>
-    <row r="452" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="452" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L452" t="s">
         <v>1351</v>
       </c>
@@ -57420,7 +57629,7 @@
         <v>CROMPTON.EQ-NSE</v>
       </c>
     </row>
-    <row r="453" spans="12:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="453" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L453" t="s">
         <v>1352</v>
       </c>
@@ -57429,7 +57638,7 @@
         <v>DALBHARAT.EQ-NSE</v>
       </c>
     </row>
-    <row r="454" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L454" t="s">
         <v>1353</v>
       </c>
@@ -57438,7 +57647,7 @@
         <v>JKCEMENT.EQ-NSE</v>
       </c>
     </row>
-    <row r="455" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L455" t="s">
         <v>1354</v>
       </c>
@@ -57447,7 +57656,7 @@
         <v>OBEROIRLTY.EQ-NSE</v>
       </c>
     </row>
-    <row r="456" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L456" t="s">
         <v>1355</v>
       </c>
@@ -57456,7 +57665,7 @@
         <v>PERSISTENT.EQ-NSE</v>
       </c>
     </row>
-    <row r="457" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L457" t="s">
         <v>1358</v>
       </c>
@@ -57465,7 +57674,7 @@
         <v>ATUL.EQ-NSE</v>
       </c>
     </row>
-    <row r="458" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L458" s="2" t="s">
         <v>1272</v>
       </c>
@@ -57474,7 +57683,7 @@
         <v>BSOFT.EQ-NSE</v>
       </c>
     </row>
-    <row r="459" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L459" s="2" t="s">
         <v>1367</v>
       </c>
@@ -57483,7 +57692,7 @@
         <v>LAURUSLABS.EQ-NSE</v>
       </c>
     </row>
-    <row r="460" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L460" s="2" t="s">
         <v>1368</v>
       </c>
@@ -57492,7 +57701,7 @@
         <v>SBICARD.EQ-NSE</v>
       </c>
     </row>
-    <row r="461" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L461" s="2" t="s">
         <v>1369</v>
       </c>
@@ -57501,7 +57710,7 @@
         <v>WHIRLPOOL.EQ-NSE</v>
       </c>
     </row>
-    <row r="462" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L462" t="s">
         <v>1372</v>
       </c>
@@ -57510,7 +57719,7 @@
         <v>ABCAPITAL.EQ-NSE</v>
       </c>
     </row>
-    <row r="463" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L463" t="s">
         <v>1374</v>
       </c>
@@ -57519,7 +57728,7 @@
         <v>HINDCOPPER.EQ-NSE</v>
       </c>
     </row>
-    <row r="464" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L464" t="s">
         <v>1377</v>
       </c>
@@ -57528,7 +57737,7 @@
         <v>HONAUT.EQ-NSE</v>
       </c>
     </row>
-    <row r="465" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L465" t="s">
         <v>1379</v>
       </c>
@@ -57537,7 +57746,7 @@
         <v>RAIN.EQ-NSE</v>
       </c>
     </row>
-    <row r="466" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L466" t="s">
         <v>1382</v>
       </c>
@@ -57546,13 +57755,41 @@
         <v>INTELLECT.EQ-NSE</v>
       </c>
     </row>
-    <row r="467" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L467" t="s">
         <v>1386</v>
       </c>
       <c r="N467" t="str">
         <f t="shared" si="21"/>
         <v>ZYDUSLIFE.EQ-NSE</v>
+      </c>
+    </row>
+    <row r="468" spans="12:14" x14ac:dyDescent="0.45">
+      <c r="L468" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M468" s="12" t="s">
+        <v>1395</v>
+      </c>
+      <c r="N468" t="str">
+        <f t="shared" si="21"/>
+        <v>NAVA.EQ-NSE</v>
+      </c>
+    </row>
+    <row r="469" spans="12:14" x14ac:dyDescent="0.45">
+      <c r="L469" t="s">
+        <v>1396</v>
+      </c>
+      <c r="N469" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="470" spans="12:14" x14ac:dyDescent="0.45">
+      <c r="L470" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N470" t="s">
+        <v>1397</v>
       </c>
     </row>
   </sheetData>
@@ -57571,9 +57808,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
